--- a/right_knee_Data_Variable.xlsx
+++ b/right_knee_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252.8082275390625</v>
+        <v>310.2254333496094</v>
       </c>
       <c r="B2" t="n">
-        <v>253.4573669433594</v>
+        <v>314.5982666015625</v>
       </c>
       <c r="C2" t="n">
-        <v>225.5078735351562</v>
+        <v>322.8191528320312</v>
       </c>
       <c r="D2" t="n">
-        <v>209.2527923583984</v>
+        <v>325.667724609375</v>
       </c>
       <c r="E2" t="n">
-        <v>261.4685363769531</v>
+        <v>328.3293151855469</v>
       </c>
       <c r="F2" t="n">
-        <v>219.9130859375</v>
+        <v>331.7501831054688</v>
       </c>
       <c r="G2" t="n">
-        <v>268.8634338378906</v>
+        <v>337.1487731933594</v>
       </c>
       <c r="H2" t="n">
-        <v>234.361083984375</v>
+        <v>344.3684692382812</v>
       </c>
       <c r="I2" t="n">
-        <v>247.7710723876953</v>
+        <v>351.8695678710938</v>
       </c>
       <c r="J2" t="n">
-        <v>259.0822448730469</v>
+        <v>357.89208984375</v>
       </c>
       <c r="K2" t="n">
-        <v>289.8729858398438</v>
+        <v>364.662841796875</v>
       </c>
       <c r="L2" t="n">
-        <v>295.4325866699219</v>
+        <v>370.411865234375</v>
       </c>
       <c r="M2" t="n">
-        <v>298.6627502441406</v>
+        <v>392.2938537597656</v>
       </c>
       <c r="N2" t="n">
-        <v>302.4542236328125</v>
+        <v>394.1546020507812</v>
       </c>
       <c r="O2" t="n">
-        <v>283.01513671875</v>
+        <v>395.1720581054688</v>
       </c>
       <c r="P2" t="n">
-        <v>282.4644470214844</v>
+        <v>394.45654296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.1168518066406</v>
+        <v>394.5002746582031</v>
       </c>
       <c r="R2" t="n">
-        <v>296.2970581054688</v>
+        <v>394.0285949707031</v>
       </c>
       <c r="S2" t="n">
-        <v>296.4820861816406</v>
+        <v>392.8497924804688</v>
       </c>
       <c r="T2" t="n">
-        <v>295.7156982421875</v>
+        <v>391.009033203125</v>
       </c>
       <c r="U2" t="n">
-        <v>296.2600708007812</v>
+        <v>387.5975036621094</v>
       </c>
       <c r="V2" t="n">
-        <v>297.7103576660156</v>
+        <v>383.1727600097656</v>
       </c>
       <c r="W2" t="n">
-        <v>300.1331787109375</v>
+        <v>378.5051879882812</v>
       </c>
       <c r="X2" t="n">
-        <v>301.5972900390625</v>
+        <v>374.3789978027344</v>
       </c>
       <c r="Y2" t="n">
-        <v>303.5385131835938</v>
+        <v>370.6719970703125</v>
       </c>
       <c r="Z2" t="n">
-        <v>304.9241333007812</v>
+        <v>367.0429077148438</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.1305541992188</v>
+        <v>362.2253723144531</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.0140686035156</v>
+        <v>359.2676391601562</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.0330810546875</v>
+        <v>357.2691650390625</v>
       </c>
       <c r="AD2" t="n">
-        <v>307.941650390625</v>
+        <v>354.5977172851562</v>
       </c>
       <c r="AE2" t="n">
-        <v>308.4716796875</v>
+        <v>357.3162841796875</v>
       </c>
       <c r="AF2" t="n">
-        <v>309.5827026367188</v>
+        <v>357.6284484863281</v>
       </c>
       <c r="AG2" t="n">
-        <v>310.8898315429688</v>
+        <v>358.37353515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>311.6024475097656</v>
+        <v>357.409912109375</v>
       </c>
       <c r="AI2" t="n">
-        <v>311.96484375</v>
+        <v>357.2201843261719</v>
       </c>
       <c r="AJ2" t="n">
-        <v>312.7880249023438</v>
+        <v>356.0974731445312</v>
       </c>
       <c r="AK2" t="n">
-        <v>313.1476440429688</v>
+        <v>355.8694152832031</v>
       </c>
       <c r="AL2" t="n">
-        <v>324.7422485351562</v>
+        <v>355.1238403320312</v>
       </c>
       <c r="AM2" t="n">
-        <v>326.6865539550781</v>
+        <v>354.845947265625</v>
       </c>
       <c r="AN2" t="n">
-        <v>325.2069702148438</v>
+        <v>355.468017578125</v>
       </c>
       <c r="AO2" t="n">
-        <v>323.3771057128906</v>
+        <v>356.1144714355469</v>
       </c>
       <c r="AP2" t="n">
-        <v>323.4310913085938</v>
+        <v>356.7584533691406</v>
       </c>
       <c r="AQ2" t="n">
-        <v>323.3196411132812</v>
+        <v>354.9180297851562</v>
       </c>
       <c r="AR2" t="n">
-        <v>323.397216796875</v>
+        <v>352.2272033691406</v>
       </c>
       <c r="AS2" t="n">
-        <v>323.6758728027344</v>
+        <v>351.6824645996094</v>
       </c>
       <c r="AT2" t="n">
-        <v>324.7843017578125</v>
+        <v>351.2070922851562</v>
       </c>
       <c r="AU2" t="n">
-        <v>327.4201049804688</v>
+        <v>377.5782470703125</v>
       </c>
       <c r="AV2" t="n">
-        <v>328.0057983398438</v>
+        <v>375.2720642089844</v>
       </c>
       <c r="AW2" t="n">
-        <v>328.8439331054688</v>
+        <v>357.3215942382812</v>
       </c>
       <c r="AX2" t="n">
-        <v>328.1328735351562</v>
+        <v>352.7216186523438</v>
       </c>
       <c r="AY2" t="n">
-        <v>327.432861328125</v>
+        <v>353.5397338867188</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.9566650390625</v>
+        <v>354.0650024414062</v>
       </c>
       <c r="BA2" t="n">
-        <v>325.913330078125</v>
+        <v>354.0000610351562</v>
       </c>
       <c r="BB2" t="n">
-        <v>325.0648193359375</v>
+        <v>351.6882934570312</v>
       </c>
       <c r="BC2" t="n">
-        <v>321.2872314453125</v>
+        <v>339.280029296875</v>
       </c>
       <c r="BD2" t="n">
-        <v>318.7714233398438</v>
+        <v>320.2868041992188</v>
       </c>
       <c r="BE2" t="n">
-        <v>315.8175048828125</v>
+        <v>300.0023803710938</v>
       </c>
       <c r="BF2" t="n">
-        <v>317.2589721679688</v>
+        <v>293.5405883789062</v>
       </c>
       <c r="BG2" t="n">
-        <v>316.0404052734375</v>
+        <v>296.8258361816406</v>
       </c>
       <c r="BH2" t="n">
-        <v>316.1947326660156</v>
+        <v>296.6435546875</v>
       </c>
       <c r="BI2" t="n">
-        <v>316.3456115722656</v>
+        <v>294.9367065429688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>317.1366271972656</v>
+        <v>293.0243835449219</v>
       </c>
       <c r="BK2" t="n">
-        <v>317.3201293945312</v>
+        <v>290.5037231445312</v>
       </c>
       <c r="BL2" t="n">
-        <v>316.8422241210938</v>
+        <v>290.3518676757812</v>
       </c>
       <c r="BM2" t="n">
-        <v>317.0122680664062</v>
+        <v>288.2500915527344</v>
       </c>
       <c r="BN2" t="n">
-        <v>318.3228759765625</v>
+        <v>286.2388610839844</v>
       </c>
       <c r="BO2" t="n">
-        <v>316.2855224609375</v>
+        <v>285.29931640625</v>
       </c>
       <c r="BP2" t="n">
-        <v>314.8589782714844</v>
+        <v>283.748046875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>314.8419189453125</v>
+        <v>277.9113159179688</v>
       </c>
       <c r="BR2" t="n">
-        <v>312.3421936035156</v>
+        <v>270.448974609375</v>
       </c>
       <c r="BS2" t="n">
-        <v>310.3951110839844</v>
+        <v>268.5790100097656</v>
       </c>
       <c r="BT2" t="n">
-        <v>312.8235473632812</v>
+        <v>267.2112731933594</v>
       </c>
       <c r="BU2" t="n">
-        <v>310.8101196289062</v>
+        <v>267.0646667480469</v>
       </c>
       <c r="BV2" t="n">
-        <v>313.0029602050781</v>
+        <v>268.8908996582031</v>
       </c>
       <c r="BW2" t="n">
-        <v>311.4716491699219</v>
+        <v>271.2939453125</v>
       </c>
       <c r="BX2" t="n">
-        <v>311.1427307128906</v>
+        <v>274.1612854003906</v>
       </c>
       <c r="BY2" t="n">
-        <v>313.25390625</v>
+        <v>282.11328125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>313.153564453125</v>
+        <v>284.2450866699219</v>
       </c>
       <c r="CA2" t="n">
-        <v>312.5495910644531</v>
+        <v>286.167236328125</v>
       </c>
       <c r="CB2" t="n">
-        <v>311.81884765625</v>
+        <v>288.4710083007812</v>
       </c>
       <c r="CC2" t="n">
-        <v>311.9964904785156</v>
+        <v>291.3590393066406</v>
       </c>
       <c r="CD2" t="n">
-        <v>311.802001953125</v>
+        <v>295.4765625</v>
       </c>
       <c r="CE2" t="n">
-        <v>311.0669555664062</v>
+        <v>305.3927307128906</v>
       </c>
       <c r="CF2" t="n">
-        <v>311.2299499511719</v>
+        <v>312.4042663574219</v>
       </c>
       <c r="CG2" t="n">
-        <v>312.0542602539062</v>
+        <v>318.5242919921875</v>
       </c>
       <c r="CH2" t="n">
-        <v>312.4242553710938</v>
+        <v>323.5830688476562</v>
       </c>
       <c r="CI2" t="n">
-        <v>311.0635681152344</v>
+        <v>327.05078125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>310.5700988769531</v>
+        <v>319.4044799804688</v>
       </c>
       <c r="CK2" t="n">
-        <v>307.9811706542969</v>
+        <v>322.4325866699219</v>
       </c>
       <c r="CL2" t="n">
-        <v>310.1111755371094</v>
+        <v>325.1109008789062</v>
       </c>
       <c r="CM2" t="n">
-        <v>304.95166015625</v>
+        <v>327.7477416992188</v>
       </c>
       <c r="CN2" t="n">
-        <v>305.08837890625</v>
+        <v>331.2196655273438</v>
       </c>
       <c r="CO2" t="n">
-        <v>305.271484375</v>
+        <v>332.4781494140625</v>
       </c>
       <c r="CP2" t="n">
-        <v>304.4656066894531</v>
+        <v>333.9346313476562</v>
       </c>
       <c r="CQ2" t="n">
-        <v>302.9930419921875</v>
+        <v>335.3731689453125</v>
       </c>
       <c r="CR2" t="n">
-        <v>300.7632141113281</v>
+        <v>336.2974548339844</v>
       </c>
       <c r="CS2" t="n">
-        <v>304.0977478027344</v>
+        <v>337.1170654296875</v>
       </c>
       <c r="CT2" t="n">
-        <v>298.1139221191406</v>
+        <v>337.5661926269531</v>
       </c>
       <c r="CU2" t="n">
-        <v>309.7144470214844</v>
+        <v>337.8191528320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>309.3336181640625</v>
+        <v>336.8163757324219</v>
       </c>
       <c r="CW2" t="n">
-        <v>299.1750793457031</v>
+        <v>335.5424194335938</v>
       </c>
       <c r="CX2" t="n">
-        <v>295.546142578125</v>
+        <v>331.8169555664062</v>
       </c>
       <c r="CY2" t="n">
-        <v>296.5147705078125</v>
+        <v>328.2073364257812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>295.0704040527344</v>
+        <v>320.5074462890625</v>
       </c>
       <c r="DA2" t="n">
-        <v>291.2851257324219</v>
+        <v>317.6910705566406</v>
       </c>
       <c r="DB2" t="n">
-        <v>295.1961364746094</v>
+        <v>315.6924743652344</v>
       </c>
       <c r="DC2" t="n">
-        <v>294.1539001464844</v>
+        <v>312.5914916992188</v>
       </c>
       <c r="DD2" t="n">
-        <v>294.8469543457031</v>
+        <v>308.5101013183594</v>
       </c>
       <c r="DE2" t="n">
-        <v>297.2770385742188</v>
+        <v>302.2157897949219</v>
       </c>
       <c r="DF2" t="n">
-        <v>290.0917053222656</v>
+        <v>297.641357421875</v>
       </c>
       <c r="DG2" t="n">
-        <v>294.2614440917969</v>
+        <v>296.3964233398438</v>
       </c>
       <c r="DH2" t="n">
-        <v>293.9214782714844</v>
+        <v>293.4560852050781</v>
       </c>
       <c r="DI2" t="n">
-        <v>293.1921081542969</v>
+        <v>280.4938354492188</v>
       </c>
       <c r="DJ2" t="n">
-        <v>293.2904052734375</v>
+        <v>273.5737609863281</v>
       </c>
       <c r="DK2" t="n">
-        <v>295.4681091308594</v>
+        <v>271.0347595214844</v>
       </c>
       <c r="DL2" t="n">
-        <v>296.6664123535156</v>
+        <v>271.3012390136719</v>
       </c>
       <c r="DM2" t="n">
-        <v>296.4124450683594</v>
+        <v>271.5876159667969</v>
       </c>
       <c r="DN2" t="n">
-        <v>296.3199157714844</v>
+        <v>271.5408935546875</v>
       </c>
       <c r="DO2" t="n">
-        <v>322.3281860351562</v>
+        <v>271.3064880371094</v>
       </c>
       <c r="DP2" t="n">
-        <v>326.9839477539062</v>
+        <v>271.2268676757812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>323.2137451171875</v>
+        <v>271.0517883300781</v>
       </c>
       <c r="DR2" t="n">
-        <v>322.5500183105469</v>
+        <v>270.9087219238281</v>
       </c>
       <c r="DS2" t="n">
-        <v>293.52978515625</v>
+        <v>270.8359069824219</v>
       </c>
       <c r="DT2" t="n">
-        <v>294.8915710449219</v>
+        <v>270.8633422851562</v>
       </c>
       <c r="DU2" t="n">
-        <v>289.60107421875</v>
+        <v>270.3726501464844</v>
       </c>
       <c r="DV2" t="n">
-        <v>287.4247131347656</v>
+        <v>270.1246643066406</v>
       </c>
       <c r="DW2" t="n">
-        <v>274.2566833496094</v>
+        <v>272.4338684082031</v>
       </c>
       <c r="DX2" t="n">
-        <v>333.285400390625</v>
+        <v>277.1294555664062</v>
       </c>
       <c r="DY2" t="n">
-        <v>327.685791015625</v>
+        <v>281.9411315917969</v>
       </c>
       <c r="DZ2" t="n">
-        <v>276.4688415527344</v>
+        <v>282.5104370117188</v>
       </c>
       <c r="EA2" t="n">
-        <v>274.8684997558594</v>
+        <v>280.4257507324219</v>
       </c>
       <c r="EB2" t="n">
-        <v>276.8204650878906</v>
+        <v>282.1469421386719</v>
       </c>
       <c r="EC2" t="n">
-        <v>278.3992919921875</v>
+        <v>299.2469482421875</v>
       </c>
       <c r="ED2" t="n">
-        <v>343.4681396484375</v>
+        <v>312.3079223632812</v>
       </c>
       <c r="EE2" t="n">
-        <v>288.1820678710938</v>
+        <v>327.5818481445312</v>
       </c>
       <c r="EF2" t="n">
-        <v>297.170166015625</v>
+        <v>346.0020446777344</v>
       </c>
       <c r="EG2" t="n">
-        <v>308.6534729003906</v>
+        <v>366.874755859375</v>
       </c>
       <c r="EH2" t="n">
-        <v>306.8922729492188</v>
+        <v>374.4378051757812</v>
       </c>
       <c r="EI2" t="n">
-        <v>315.4840393066406</v>
+        <v>388.0173950195312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>314.9215087890625</v>
+        <v>388.056884765625</v>
       </c>
       <c r="EK2" t="n">
-        <v>316.0062561035156</v>
+        <v>388.8849487304688</v>
       </c>
       <c r="EL2" t="n">
-        <v>314.885498046875</v>
+        <v>391.1337280273438</v>
       </c>
       <c r="EM2" t="n">
-        <v>311.497802734375</v>
+        <v>407.0172729492188</v>
       </c>
       <c r="EN2" t="n">
-        <v>308.9386901855469</v>
+        <v>408.8720092773438</v>
       </c>
       <c r="EO2" t="n">
-        <v>310.0882873535156</v>
+        <v>418.618408203125</v>
       </c>
       <c r="EP2" t="n">
-        <v>311.0496520996094</v>
+        <v>394.733642578125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>312.3975219726562</v>
+        <v>435.0067138671875</v>
       </c>
       <c r="ER2" t="n">
-        <v>312.3487243652344</v>
+        <v>435.3524780273438</v>
       </c>
       <c r="ES2" t="n">
-        <v>315.9266967773438</v>
+        <v>434.3477172851562</v>
       </c>
       <c r="ET2" t="n">
-        <v>312.5251770019531</v>
+        <v>436.9691772460938</v>
       </c>
       <c r="EU2" t="n">
-        <v>311.6705322265625</v>
+        <v>436.614013671875</v>
       </c>
       <c r="EV2" t="n">
-        <v>309.2984008789062</v>
+        <v>434.8317260742188</v>
       </c>
       <c r="EW2" t="n">
-        <v>308.8852233886719</v>
+        <v>435.6319580078125</v>
       </c>
       <c r="EX2" t="n">
-        <v>309.1423950195312</v>
+        <v>436.5650024414062</v>
       </c>
       <c r="EY2" t="n">
-        <v>308.9573059082031</v>
+        <v>433.9258117675781</v>
       </c>
       <c r="EZ2" t="n">
-        <v>310.8941040039062</v>
+        <v>432.6069946289062</v>
       </c>
       <c r="FA2" t="n">
-        <v>308.7627258300781</v>
+        <v>431.2615356445312</v>
       </c>
       <c r="FB2" t="n">
-        <v>307.0694274902344</v>
+        <v>431.9168701171875</v>
       </c>
       <c r="FC2" t="n">
-        <v>299.7608642578125</v>
+        <v>429.1025390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>327.0833740234375</v>
+        <v>427.615966796875</v>
       </c>
       <c r="FE2" t="n">
-        <v>338.5685424804688</v>
+        <v>426.974365234375</v>
       </c>
       <c r="FF2" t="n">
-        <v>284.6937255859375</v>
+        <v>425.58251953125</v>
       </c>
       <c r="FG2" t="n">
-        <v>279.7788696289062</v>
+        <v>424.0350341796875</v>
       </c>
       <c r="FH2" t="n">
-        <v>274.3373107910156</v>
+        <v>424.3536376953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>268.8752746582031</v>
+        <v>424.101318359375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>273.21435546875</v>
+        <v>424.0581665039062</v>
       </c>
       <c r="FK2" t="n">
-        <v>276.0870056152344</v>
+        <v>447.6373901367188</v>
       </c>
       <c r="FL2" t="n">
-        <v>281.6301879882812</v>
+        <v>446.2362060546875</v>
       </c>
       <c r="FM2" t="n">
-        <v>287.5610961914062</v>
+        <v>439.2186889648438</v>
       </c>
       <c r="FN2" t="n">
-        <v>298.7935485839844</v>
+        <v>435.0170288085938</v>
       </c>
       <c r="FO2" t="n">
-        <v>302.3623352050781</v>
+        <v>429.9955444335938</v>
       </c>
       <c r="FP2" t="n">
-        <v>304.4614868164062</v>
+        <v>420.4432983398438</v>
       </c>
       <c r="FQ2" t="n">
-        <v>302.8586120605469</v>
+        <v>413.3529052734375</v>
       </c>
       <c r="FR2" t="n">
-        <v>304.0158386230469</v>
+        <v>407.0761108398438</v>
       </c>
       <c r="FS2" t="n">
-        <v>302.9932250976562</v>
+        <v>399.8518371582031</v>
       </c>
       <c r="FT2" t="n">
-        <v>298.6336364746094</v>
+        <v>397.8037109375</v>
       </c>
       <c r="FU2" t="n">
-        <v>300.1872253417969</v>
+        <v>397.5868530273438</v>
       </c>
       <c r="FV2" t="n">
-        <v>297.3303833007812</v>
+        <v>397.5517578125</v>
       </c>
       <c r="FW2" t="n">
-        <v>298.6178283691406</v>
+        <v>394.9926452636719</v>
       </c>
       <c r="FX2" t="n">
-        <v>297.6316223144531</v>
+        <v>391.8624267578125</v>
       </c>
       <c r="FY2" t="n">
-        <v>298.7422180175781</v>
+        <v>388.8119201660156</v>
       </c>
       <c r="FZ2" t="n">
-        <v>300.6647033691406</v>
+        <v>391.79296875</v>
       </c>
       <c r="GA2" t="n">
-        <v>297.2758483886719</v>
+        <v>393.4209594726562</v>
       </c>
       <c r="GB2" t="n">
-        <v>297.6732177734375</v>
+        <v>394.1669311523438</v>
       </c>
       <c r="GC2" t="n">
-        <v>297.2520751953125</v>
+        <v>394.3293762207031</v>
       </c>
       <c r="GD2" t="n">
-        <v>297.9460144042969</v>
+        <v>394.1560668945312</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.69873046875</v>
+        <v>395.2001342773438</v>
       </c>
       <c r="GF2" t="n">
-        <v>294.3138122558594</v>
+        <v>397.6939086914062</v>
       </c>
       <c r="GG2" t="n">
-        <v>294.7841186523438</v>
+        <v>400.5474243164062</v>
       </c>
       <c r="GH2" t="n">
-        <v>296.0027770996094</v>
+        <v>403.6483154296875</v>
       </c>
       <c r="GI2" t="n">
-        <v>292.6109619140625</v>
+        <v>402.1110534667969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>284.4866027832031</v>
+        <v>366.003173828125</v>
       </c>
       <c r="GK2" t="n">
-        <v>274.8724365234375</v>
+        <v>363.6738586425781</v>
       </c>
       <c r="GL2" t="n">
-        <v>269.8855285644531</v>
+        <v>359.0513305664062</v>
       </c>
       <c r="GM2" t="n">
-        <v>273.8162841796875</v>
+        <v>355.3030395507812</v>
       </c>
       <c r="GN2" t="n">
-        <v>276.12646484375</v>
+        <v>352.9891662597656</v>
       </c>
       <c r="GO2" t="n">
-        <v>282.6696472167969</v>
+        <v>349.5485229492188</v>
       </c>
       <c r="GP2" t="n">
-        <v>285.7409362792969</v>
+        <v>344.3164367675781</v>
       </c>
       <c r="GQ2" t="n">
-        <v>287.3159790039062</v>
+        <v>338.1708068847656</v>
       </c>
       <c r="GR2" t="n">
-        <v>288.9331359863281</v>
+        <v>335.3969116210938</v>
       </c>
       <c r="GS2" t="n">
-        <v>289.0314331054688</v>
+        <v>333.3132934570312</v>
       </c>
       <c r="GT2" t="n">
-        <v>289.4716491699219</v>
+        <v>330.9258422851562</v>
       </c>
       <c r="GU2" t="n">
-        <v>288.0643310546875</v>
+        <v>325.4055480957031</v>
       </c>
       <c r="GV2" t="n">
-        <v>286.3536987304688</v>
+        <v>322.8121337890625</v>
       </c>
       <c r="GW2" t="n">
-        <v>285.4754943847656</v>
+        <v>321.592529296875</v>
       </c>
       <c r="GX2" t="n">
-        <v>285.0413818359375</v>
+        <v>321.0260009765625</v>
       </c>
       <c r="GY2" t="n">
-        <v>285.0159912109375</v>
+        <v>319.354736328125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>284.314453125</v>
+        <v>355.6829833984375</v>
       </c>
       <c r="HA2" t="n">
-        <v>273.7212829589844</v>
+        <v>354.8748168945312</v>
       </c>
       <c r="HB2" t="n">
-        <v>275.5404052734375</v>
+        <v>354.2005004882812</v>
       </c>
       <c r="HC2" t="n">
-        <v>268.6653137207031</v>
+        <v>355.0977783203125</v>
       </c>
       <c r="HD2" t="n">
-        <v>267.3247375488281</v>
+        <v>356.0184326171875</v>
       </c>
       <c r="HE2" t="n">
-        <v>266.965576171875</v>
+        <v>352.4422607421875</v>
       </c>
       <c r="HF2" t="n">
-        <v>262.6878662109375</v>
+        <v>353.76513671875</v>
       </c>
       <c r="HG2" t="n">
-        <v>260.0060424804688</v>
+        <v>353.0780639648438</v>
       </c>
       <c r="HH2" t="n">
-        <v>258.8278503417969</v>
+        <v>353.4716796875</v>
       </c>
       <c r="HI2" t="n">
-        <v>256.6325073242188</v>
+        <v>352.4647216796875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>253.1957855224609</v>
+        <v>350.9094848632812</v>
       </c>
       <c r="HK2" t="n">
-        <v>247.826171875</v>
+        <v>348.3944091796875</v>
       </c>
       <c r="HL2" t="n">
-        <v>240.5530090332031</v>
+        <v>349.1814880371094</v>
       </c>
       <c r="HM2" t="n">
-        <v>230.0355224609375</v>
+        <v>354.5328369140625</v>
       </c>
       <c r="HN2" t="n">
-        <v>213.2673492431641</v>
+        <v>350.3729858398438</v>
       </c>
       <c r="HO2" t="n">
-        <v>204.1988830566406</v>
+        <v>338.7423095703125</v>
       </c>
       <c r="HP2" t="n">
-        <v>197.7926330566406</v>
+        <v>416.847900390625</v>
       </c>
       <c r="HQ2" t="n">
-        <v>195.2374267578125</v>
+        <v>410.3092041015625</v>
       </c>
       <c r="HR2" t="n">
-        <v>193.1144409179688</v>
+        <v>418.5326538085938</v>
       </c>
       <c r="HS2" t="n">
-        <v>184.7725067138672</v>
+        <v>415.7783813476562</v>
       </c>
       <c r="HT2" t="n">
-        <v>176.8176116943359</v>
+        <v>408.8812866210938</v>
       </c>
       <c r="HU2" t="n">
-        <v>177.8640441894531</v>
+        <v>408.3660583496094</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>417.6949462890625</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>407.4916076660156</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>418.8533935546875</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>411.1147766113281</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>385.6796264648438</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>396.23583984375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>397.4853210449219</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>407.6644897460938</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>408.6006469726562</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>410.5529174804688</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>411.400390625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>390.92431640625</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>409.619384765625</v>
+      </c>
+      <c r="II2" t="n">
+        <v>408.6292114257812</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>405.53857421875</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>365.128173828125</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>360.6661376953125</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>352.8363647460938</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>340.2651977539062</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>341.5368957519531</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>343.7665100097656</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>343.7063903808594</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>346.7960205078125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>346.0615539550781</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>344.94970703125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>345.4644165039062</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>347.6051635742188</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>347.6921997070312</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>354.8900756835938</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>356.3515625</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>356.6658325195312</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>349.3150024414062</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>345.0071716308594</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>343.3733825683594</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>344.1248168945312</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>340.8127136230469</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>342.8644104003906</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>342.5390014648438</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>341.7544250488281</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>341.166748046875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>340.5799865722656</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>339.9791259765625</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>382.90869140625</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>416.5181884765625</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>413.2607727050781</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>380.87939453125</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>383.3544311523438</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>385.7564086914062</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>386.98681640625</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>389.3887939453125</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>391.4527587890625</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>392.4630126953125</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>392.76513671875</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>392.910400390625</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>392.9954223632812</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>393.0621032714844</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>393.1225891113281</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>393.2585144042969</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>391.95703125</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>390.0151977539062</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>388.7657470703125</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>387.8309936523438</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>387.4915161132812</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>387.4921875</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>387.6359252929688</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>387.8386840820312</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>388.0813293457031</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>388.2983093261719</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>388.4627075195312</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>388.4072265625</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>388.3437805175781</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>388.6680908203125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>389.1784057617188</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>389.8519592285156</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>390.1655883789062</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>391.5227661132812</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>392.6908874511719</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>393.4093017578125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>393.1143188476562</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>393.1574096679688</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>393.1611633300781</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>394.0421142578125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>395.7198791503906</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>399.0823974609375</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>401.9011840820312</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>412.0196533203125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>420.0746459960938</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>421.898193359375</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>430.9388732910156</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>437.1052856445312</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>444.262451171875</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>448.9788208007812</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>453.6173095703125</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>458.90771484375</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>452.5335083007812</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>425.3210754394531</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>353.2330932617188</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>379.0648803710938</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>424.3871459960938</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>462.4285278320312</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>482.86767578125</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>447.31689453125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>451.1623840332031</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>453.8689575195312</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>451.6170654296875</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>434.8385620117188</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>429.8465270996094</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>416.9219970703125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>394.8665161132812</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>369.37060546875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>344.1002807617188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>321.40869140625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>303.3062133789062</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>301.4769287109375</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>303.1114501953125</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>309.6549682617188</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>314.733154296875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>320.859619140625</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>327.0216064453125</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>337.1556091308594</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>344.2418823242188</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>365.7611694335938</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>363.3472900390625</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>366.4683837890625</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>369.8175354003906</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>367.5332641601562</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>346.3028259277344</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>375.2646484375</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>402.2289428710938</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>397.1625061035156</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>354.3610229492188</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>348.6256103515625</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>339.934326171875</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>307.4857177734375</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>327.0354919433594</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>323.8872680664062</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>280.7858276367188</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>265.8688659667969</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>272.0917358398438</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>274.9955139160156</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>275.6927490234375</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>277.1116027832031</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>277.1333312988281</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>279.3191528320312</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>281.8798828125</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>283.55224609375</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>282.9685668945312</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>286.5022888183594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>688.5702514648438</v>
+        <v>559.5035400390625</v>
       </c>
       <c r="B3" t="n">
-        <v>678.0586547851562</v>
+        <v>551.0612182617188</v>
       </c>
       <c r="C3" t="n">
-        <v>664.1488647460938</v>
+        <v>552.89306640625</v>
       </c>
       <c r="D3" t="n">
-        <v>616.0630493164062</v>
+        <v>552.0269165039062</v>
       </c>
       <c r="E3" t="n">
-        <v>657.0706176757812</v>
+        <v>552.6859130859375</v>
       </c>
       <c r="F3" t="n">
-        <v>602.437255859375</v>
+        <v>549.0576171875</v>
       </c>
       <c r="G3" t="n">
-        <v>637.72119140625</v>
+        <v>543.2818603515625</v>
       </c>
       <c r="H3" t="n">
-        <v>593.634765625</v>
+        <v>538.5213012695312</v>
       </c>
       <c r="I3" t="n">
-        <v>605.4155883789062</v>
+        <v>532.7669067382812</v>
       </c>
       <c r="J3" t="n">
-        <v>598.7251586914062</v>
+        <v>527.3355102539062</v>
       </c>
       <c r="K3" t="n">
-        <v>607.717529296875</v>
+        <v>521.72216796875</v>
       </c>
       <c r="L3" t="n">
-        <v>596.7052001953125</v>
+        <v>515.7958984375</v>
       </c>
       <c r="M3" t="n">
-        <v>592.7941284179688</v>
+        <v>516.830810546875</v>
       </c>
       <c r="N3" t="n">
-        <v>586.48486328125</v>
+        <v>502.6558837890625</v>
       </c>
       <c r="O3" t="n">
-        <v>518.6828002929688</v>
+        <v>501.0798950195312</v>
       </c>
       <c r="P3" t="n">
-        <v>457.4208068847656</v>
+        <v>494.6972351074219</v>
       </c>
       <c r="Q3" t="n">
-        <v>447.1877746582031</v>
+        <v>492.317626953125</v>
       </c>
       <c r="R3" t="n">
-        <v>438.8028564453125</v>
+        <v>491.467041015625</v>
       </c>
       <c r="S3" t="n">
-        <v>436.2195739746094</v>
+        <v>491.4800415039062</v>
       </c>
       <c r="T3" t="n">
-        <v>434.7768859863281</v>
+        <v>488.7878112792969</v>
       </c>
       <c r="U3" t="n">
-        <v>433.3704223632812</v>
+        <v>486.5292053222656</v>
       </c>
       <c r="V3" t="n">
-        <v>432.3846740722656</v>
+        <v>484.8160095214844</v>
       </c>
       <c r="W3" t="n">
-        <v>432.4425048828125</v>
+        <v>483.282958984375</v>
       </c>
       <c r="X3" t="n">
-        <v>429.104736328125</v>
+        <v>482.6346130371094</v>
       </c>
       <c r="Y3" t="n">
-        <v>424.3168334960938</v>
+        <v>490.6553039550781</v>
       </c>
       <c r="Z3" t="n">
-        <v>421.1920471191406</v>
+        <v>499.3495483398438</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.5021667480469</v>
+        <v>500.7323608398438</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.3688659667969</v>
+        <v>502.6398010253906</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.1396789550781</v>
+        <v>501.2068176269531</v>
       </c>
       <c r="AD3" t="n">
-        <v>403.1722412109375</v>
+        <v>497.6535949707031</v>
       </c>
       <c r="AE3" t="n">
-        <v>400.0067749023438</v>
+        <v>524.521728515625</v>
       </c>
       <c r="AF3" t="n">
-        <v>396.1318054199219</v>
+        <v>518.6129150390625</v>
       </c>
       <c r="AG3" t="n">
-        <v>392.2070922851562</v>
+        <v>516.5739135742188</v>
       </c>
       <c r="AH3" t="n">
-        <v>389.2020568847656</v>
+        <v>499.9763488769531</v>
       </c>
       <c r="AI3" t="n">
-        <v>386.4032287597656</v>
+        <v>504.9561157226562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>384.6873474121094</v>
+        <v>501.509521484375</v>
       </c>
       <c r="AK3" t="n">
-        <v>383.2767639160156</v>
+        <v>507.6769714355469</v>
       </c>
       <c r="AL3" t="n">
-        <v>386.7303161621094</v>
+        <v>511.3106384277344</v>
       </c>
       <c r="AM3" t="n">
-        <v>389.5035400390625</v>
+        <v>517.2994995117188</v>
       </c>
       <c r="AN3" t="n">
-        <v>389.3761291503906</v>
+        <v>517.8388671875</v>
       </c>
       <c r="AO3" t="n">
-        <v>385.4518432617188</v>
+        <v>518.8033447265625</v>
       </c>
       <c r="AP3" t="n">
-        <v>382.0335693359375</v>
+        <v>518.8385620117188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>377.5942993164062</v>
+        <v>524.3673706054688</v>
       </c>
       <c r="AR3" t="n">
-        <v>372.4640502929688</v>
+        <v>528.3331298828125</v>
       </c>
       <c r="AS3" t="n">
-        <v>371.3095397949219</v>
+        <v>528.6116943359375</v>
       </c>
       <c r="AT3" t="n">
-        <v>366.2089233398438</v>
+        <v>528.7696533203125</v>
       </c>
       <c r="AU3" t="n">
-        <v>363.7846984863281</v>
+        <v>520.5885620117188</v>
       </c>
       <c r="AV3" t="n">
-        <v>361.4232788085938</v>
+        <v>523.7137451171875</v>
       </c>
       <c r="AW3" t="n">
-        <v>359.2544555664062</v>
+        <v>529.6052856445312</v>
       </c>
       <c r="AX3" t="n">
-        <v>355.203369140625</v>
+        <v>530.3565673828125</v>
       </c>
       <c r="AY3" t="n">
-        <v>353.0182189941406</v>
+        <v>533.0758666992188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>354.8167724609375</v>
+        <v>536.097900390625</v>
       </c>
       <c r="BA3" t="n">
-        <v>356.3421020507812</v>
+        <v>538.9144287109375</v>
       </c>
       <c r="BB3" t="n">
-        <v>357.7279663085938</v>
+        <v>539.2501220703125</v>
       </c>
       <c r="BC3" t="n">
-        <v>358.2560729980469</v>
+        <v>539.9420776367188</v>
       </c>
       <c r="BD3" t="n">
-        <v>356.01318359375</v>
+        <v>535.2494506835938</v>
       </c>
       <c r="BE3" t="n">
-        <v>357.49169921875</v>
+        <v>529.2059936523438</v>
       </c>
       <c r="BF3" t="n">
-        <v>348.543701171875</v>
+        <v>521.6528930664062</v>
       </c>
       <c r="BG3" t="n">
-        <v>346.5541687011719</v>
+        <v>519.7144775390625</v>
       </c>
       <c r="BH3" t="n">
-        <v>347.3519287109375</v>
+        <v>516.2290649414062</v>
       </c>
       <c r="BI3" t="n">
-        <v>347.8871459960938</v>
+        <v>512.5556640625</v>
       </c>
       <c r="BJ3" t="n">
-        <v>349.8628540039062</v>
+        <v>511.8805541992188</v>
       </c>
       <c r="BK3" t="n">
-        <v>348.2985229492188</v>
+        <v>514.2914428710938</v>
       </c>
       <c r="BL3" t="n">
-        <v>347.0550231933594</v>
+        <v>519.66455078125</v>
       </c>
       <c r="BM3" t="n">
-        <v>347.0093688964844</v>
+        <v>523.1295776367188</v>
       </c>
       <c r="BN3" t="n">
-        <v>349.3525390625</v>
+        <v>524.9241333007812</v>
       </c>
       <c r="BO3" t="n">
-        <v>342.1915893554688</v>
+        <v>527.0883178710938</v>
       </c>
       <c r="BP3" t="n">
-        <v>341.9916381835938</v>
+        <v>526.7666625976562</v>
       </c>
       <c r="BQ3" t="n">
-        <v>336.3550415039062</v>
+        <v>529.2837524414062</v>
       </c>
       <c r="BR3" t="n">
-        <v>338.2026062011719</v>
+        <v>530.9750366210938</v>
       </c>
       <c r="BS3" t="n">
-        <v>337.2248840332031</v>
+        <v>532.5173950195312</v>
       </c>
       <c r="BT3" t="n">
-        <v>338.2830505371094</v>
+        <v>533.8412475585938</v>
       </c>
       <c r="BU3" t="n">
-        <v>339.9791870117188</v>
+        <v>537.05322265625</v>
       </c>
       <c r="BV3" t="n">
-        <v>334.9237060546875</v>
+        <v>538.323486328125</v>
       </c>
       <c r="BW3" t="n">
-        <v>334.4723815917969</v>
+        <v>538.896484375</v>
       </c>
       <c r="BX3" t="n">
-        <v>337.10693359375</v>
+        <v>539.2980346679688</v>
       </c>
       <c r="BY3" t="n">
-        <v>333.8078918457031</v>
+        <v>539.0782470703125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>336.0101318359375</v>
+        <v>539.4240112304688</v>
       </c>
       <c r="CA3" t="n">
-        <v>337.6951904296875</v>
+        <v>538.0601196289062</v>
       </c>
       <c r="CB3" t="n">
-        <v>336.0883483886719</v>
+        <v>538.7982177734375</v>
       </c>
       <c r="CC3" t="n">
-        <v>335.8558349609375</v>
+        <v>540.16064453125</v>
       </c>
       <c r="CD3" t="n">
-        <v>333.1578674316406</v>
+        <v>541.0458374023438</v>
       </c>
       <c r="CE3" t="n">
-        <v>328.9547729492188</v>
+        <v>541.8709106445312</v>
       </c>
       <c r="CF3" t="n">
-        <v>332.1553039550781</v>
+        <v>542.3772583007812</v>
       </c>
       <c r="CG3" t="n">
-        <v>330.4481506347656</v>
+        <v>542.522216796875</v>
       </c>
       <c r="CH3" t="n">
-        <v>331.7586669921875</v>
+        <v>544.4456176757812</v>
       </c>
       <c r="CI3" t="n">
-        <v>331.8873291015625</v>
+        <v>544.5527954101562</v>
       </c>
       <c r="CJ3" t="n">
-        <v>328.5032348632812</v>
+        <v>513.16845703125</v>
       </c>
       <c r="CK3" t="n">
-        <v>330.2952880859375</v>
+        <v>513.8135375976562</v>
       </c>
       <c r="CL3" t="n">
-        <v>330.3783874511719</v>
+        <v>514.583740234375</v>
       </c>
       <c r="CM3" t="n">
-        <v>330.0850219726562</v>
+        <v>515.3909912109375</v>
       </c>
       <c r="CN3" t="n">
-        <v>333.7154541015625</v>
+        <v>516.203857421875</v>
       </c>
       <c r="CO3" t="n">
-        <v>332.4740600585938</v>
+        <v>516.6028442382812</v>
       </c>
       <c r="CP3" t="n">
-        <v>332.8514099121094</v>
+        <v>516.8456420898438</v>
       </c>
       <c r="CQ3" t="n">
-        <v>331.4239196777344</v>
+        <v>517.0252075195312</v>
       </c>
       <c r="CR3" t="n">
-        <v>333.2112426757812</v>
+        <v>516.9779052734375</v>
       </c>
       <c r="CS3" t="n">
-        <v>332.0044250488281</v>
+        <v>517.4911499023438</v>
       </c>
       <c r="CT3" t="n">
-        <v>330.9537658691406</v>
+        <v>518.3261108398438</v>
       </c>
       <c r="CU3" t="n">
-        <v>331.9382934570312</v>
+        <v>518.842529296875</v>
       </c>
       <c r="CV3" t="n">
-        <v>335.1296691894531</v>
+        <v>519.0051879882812</v>
       </c>
       <c r="CW3" t="n">
-        <v>333.7582702636719</v>
+        <v>519.1160278320312</v>
       </c>
       <c r="CX3" t="n">
-        <v>328.9722900390625</v>
+        <v>519.2450561523438</v>
       </c>
       <c r="CY3" t="n">
-        <v>324.8013000488281</v>
+        <v>518.6396484375</v>
       </c>
       <c r="CZ3" t="n">
-        <v>323.9457397460938</v>
+        <v>516.5477294921875</v>
       </c>
       <c r="DA3" t="n">
-        <v>322.1336364746094</v>
+        <v>514.1432495117188</v>
       </c>
       <c r="DB3" t="n">
-        <v>321.4324340820312</v>
+        <v>513.3546142578125</v>
       </c>
       <c r="DC3" t="n">
-        <v>320.68408203125</v>
+        <v>512.2755126953125</v>
       </c>
       <c r="DD3" t="n">
-        <v>322.5602111816406</v>
+        <v>511.9892578125</v>
       </c>
       <c r="DE3" t="n">
-        <v>323.44775390625</v>
+        <v>511.7576904296875</v>
       </c>
       <c r="DF3" t="n">
-        <v>317.1526794433594</v>
+        <v>511.9356689453125</v>
       </c>
       <c r="DG3" t="n">
-        <v>321.1395263671875</v>
+        <v>512.155517578125</v>
       </c>
       <c r="DH3" t="n">
-        <v>323.2465515136719</v>
+        <v>512.0537109375</v>
       </c>
       <c r="DI3" t="n">
-        <v>322.5080261230469</v>
+        <v>537.8927612304688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>323.5020751953125</v>
+        <v>532.786865234375</v>
       </c>
       <c r="DK3" t="n">
-        <v>326.1531982421875</v>
+        <v>529.9644165039062</v>
       </c>
       <c r="DL3" t="n">
-        <v>324.5138244628906</v>
+        <v>530.444580078125</v>
       </c>
       <c r="DM3" t="n">
-        <v>324.3095397949219</v>
+        <v>531.833984375</v>
       </c>
       <c r="DN3" t="n">
-        <v>326.8736877441406</v>
+        <v>531.7531127929688</v>
       </c>
       <c r="DO3" t="n">
-        <v>328.3013610839844</v>
+        <v>533.728515625</v>
       </c>
       <c r="DP3" t="n">
-        <v>329.0999450683594</v>
+        <v>534.1937866210938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>328.3388366699219</v>
+        <v>533.1422729492188</v>
       </c>
       <c r="DR3" t="n">
-        <v>325.2807006835938</v>
+        <v>532.3091430664062</v>
       </c>
       <c r="DS3" t="n">
-        <v>325.9148559570312</v>
+        <v>531.77783203125</v>
       </c>
       <c r="DT3" t="n">
-        <v>320.6356201171875</v>
+        <v>531.4824829101562</v>
       </c>
       <c r="DU3" t="n">
-        <v>319.2306518554688</v>
+        <v>533.3320922851562</v>
       </c>
       <c r="DV3" t="n">
-        <v>313.2302856445312</v>
+        <v>533.47607421875</v>
       </c>
       <c r="DW3" t="n">
-        <v>297.7600402832031</v>
+        <v>531.1410522460938</v>
       </c>
       <c r="DX3" t="n">
-        <v>315.4923706054688</v>
+        <v>530.4513549804688</v>
       </c>
       <c r="DY3" t="n">
-        <v>308.4071655273438</v>
+        <v>529.2500610351562</v>
       </c>
       <c r="DZ3" t="n">
-        <v>280.9818115234375</v>
+        <v>527.441650390625</v>
       </c>
       <c r="EA3" t="n">
-        <v>283.9861145019531</v>
+        <v>527.53173828125</v>
       </c>
       <c r="EB3" t="n">
-        <v>285.1804809570312</v>
+        <v>527.061767578125</v>
       </c>
       <c r="EC3" t="n">
-        <v>289.9839782714844</v>
+        <v>531.6338500976562</v>
       </c>
       <c r="ED3" t="n">
-        <v>317.4605712890625</v>
+        <v>533.3968505859375</v>
       </c>
       <c r="EE3" t="n">
-        <v>309.6422729492188</v>
+        <v>532.3680419921875</v>
       </c>
       <c r="EF3" t="n">
-        <v>317.4423828125</v>
+        <v>532.5332641601562</v>
       </c>
       <c r="EG3" t="n">
-        <v>328.0624389648438</v>
+        <v>521.7258911132812</v>
       </c>
       <c r="EH3" t="n">
-        <v>330.9961242675781</v>
+        <v>518.9639282226562</v>
       </c>
       <c r="EI3" t="n">
-        <v>329.088134765625</v>
+        <v>515.3534545898438</v>
       </c>
       <c r="EJ3" t="n">
-        <v>339.9010009765625</v>
+        <v>512.6608276367188</v>
       </c>
       <c r="EK3" t="n">
-        <v>340.2469787597656</v>
+        <v>503.1318969726562</v>
       </c>
       <c r="EL3" t="n">
-        <v>342.9018859863281</v>
+        <v>500.7111206054688</v>
       </c>
       <c r="EM3" t="n">
-        <v>344.2784729003906</v>
+        <v>498.2179565429688</v>
       </c>
       <c r="EN3" t="n">
-        <v>336.9662475585938</v>
+        <v>494.4452514648438</v>
       </c>
       <c r="EO3" t="n">
-        <v>333.0629577636719</v>
+        <v>496.3314514160156</v>
       </c>
       <c r="EP3" t="n">
-        <v>328.6905822753906</v>
+        <v>487.0549926757812</v>
       </c>
       <c r="EQ3" t="n">
-        <v>330.1914367675781</v>
+        <v>485.345947265625</v>
       </c>
       <c r="ER3" t="n">
-        <v>328.0271606445312</v>
+        <v>482.7055053710938</v>
       </c>
       <c r="ES3" t="n">
-        <v>326.9951171875</v>
+        <v>482.2711791992188</v>
       </c>
       <c r="ET3" t="n">
-        <v>328.4566955566406</v>
+        <v>488.8688354492188</v>
       </c>
       <c r="EU3" t="n">
-        <v>329.2299194335938</v>
+        <v>485.4610595703125</v>
       </c>
       <c r="EV3" t="n">
-        <v>330.6570739746094</v>
+        <v>477.2088928222656</v>
       </c>
       <c r="EW3" t="n">
-        <v>337.2489318847656</v>
+        <v>469.4447326660156</v>
       </c>
       <c r="EX3" t="n">
-        <v>338.1918334960938</v>
+        <v>465.7933959960938</v>
       </c>
       <c r="EY3" t="n">
-        <v>341.2882385253906</v>
+        <v>460.1749877929688</v>
       </c>
       <c r="EZ3" t="n">
-        <v>343.843505859375</v>
+        <v>457.0409851074219</v>
       </c>
       <c r="FA3" t="n">
-        <v>339.3541564941406</v>
+        <v>454.8284301757812</v>
       </c>
       <c r="FB3" t="n">
-        <v>339.7105712890625</v>
+        <v>459.6672058105469</v>
       </c>
       <c r="FC3" t="n">
-        <v>335.0257873535156</v>
+        <v>460.6893920898438</v>
       </c>
       <c r="FD3" t="n">
-        <v>320.2871398925781</v>
+        <v>458.7232360839844</v>
       </c>
       <c r="FE3" t="n">
-        <v>311.0569763183594</v>
+        <v>457.6287841796875</v>
       </c>
       <c r="FF3" t="n">
-        <v>298.2041015625</v>
+        <v>455.3770141601562</v>
       </c>
       <c r="FG3" t="n">
-        <v>283.720458984375</v>
+        <v>453.5078735351562</v>
       </c>
       <c r="FH3" t="n">
-        <v>281.6777648925781</v>
+        <v>453.8913269042969</v>
       </c>
       <c r="FI3" t="n">
-        <v>288.0125427246094</v>
+        <v>451.6361694335938</v>
       </c>
       <c r="FJ3" t="n">
-        <v>301.2534484863281</v>
+        <v>450.4581909179688</v>
       </c>
       <c r="FK3" t="n">
-        <v>306.1546325683594</v>
+        <v>454.5286254882812</v>
       </c>
       <c r="FL3" t="n">
-        <v>327.6000671386719</v>
+        <v>451.9591979980469</v>
       </c>
       <c r="FM3" t="n">
-        <v>331.3306884765625</v>
+        <v>446.5625</v>
       </c>
       <c r="FN3" t="n">
-        <v>343.6010131835938</v>
+        <v>444.7215881347656</v>
       </c>
       <c r="FO3" t="n">
-        <v>342.9708862304688</v>
+        <v>445.0443115234375</v>
       </c>
       <c r="FP3" t="n">
-        <v>340.4442749023438</v>
+        <v>445.1498413085938</v>
       </c>
       <c r="FQ3" t="n">
-        <v>346.7522888183594</v>
+        <v>449.2918395996094</v>
       </c>
       <c r="FR3" t="n">
-        <v>337.0438232421875</v>
+        <v>448.6837463378906</v>
       </c>
       <c r="FS3" t="n">
-        <v>333.3045654296875</v>
+        <v>447.0115356445312</v>
       </c>
       <c r="FT3" t="n">
-        <v>332.1659851074219</v>
+        <v>443.8811950683594</v>
       </c>
       <c r="FU3" t="n">
-        <v>330.929443359375</v>
+        <v>444.5099792480469</v>
       </c>
       <c r="FV3" t="n">
-        <v>332.3970947265625</v>
+        <v>446.6387634277344</v>
       </c>
       <c r="FW3" t="n">
-        <v>333.5151062011719</v>
+        <v>447.6001892089844</v>
       </c>
       <c r="FX3" t="n">
-        <v>331.9598083496094</v>
+        <v>446.6981811523438</v>
       </c>
       <c r="FY3" t="n">
-        <v>332.7649841308594</v>
+        <v>445.5108032226562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>335.0555725097656</v>
+        <v>445.38134765625</v>
       </c>
       <c r="GA3" t="n">
-        <v>333.8181762695312</v>
+        <v>445.6920166015625</v>
       </c>
       <c r="GB3" t="n">
-        <v>337.7440795898438</v>
+        <v>443.8790283203125</v>
       </c>
       <c r="GC3" t="n">
-        <v>342.3677673339844</v>
+        <v>443.5333862304688</v>
       </c>
       <c r="GD3" t="n">
-        <v>341.7663269042969</v>
+        <v>442.7222290039062</v>
       </c>
       <c r="GE3" t="n">
-        <v>342.6455688476562</v>
+        <v>441.033203125</v>
       </c>
       <c r="GF3" t="n">
-        <v>341.3043518066406</v>
+        <v>436.5806579589844</v>
       </c>
       <c r="GG3" t="n">
-        <v>344.5506286621094</v>
+        <v>434.4568176269531</v>
       </c>
       <c r="GH3" t="n">
-        <v>344.3333740234375</v>
+        <v>431.0365905761719</v>
       </c>
       <c r="GI3" t="n">
-        <v>348.049560546875</v>
+        <v>430.5484619140625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>350.1366271972656</v>
+        <v>430.3523864746094</v>
       </c>
       <c r="GK3" t="n">
-        <v>351.4250793457031</v>
+        <v>429.9093627929688</v>
       </c>
       <c r="GL3" t="n">
-        <v>348.9831848144531</v>
+        <v>429.8118896484375</v>
       </c>
       <c r="GM3" t="n">
-        <v>352.9264221191406</v>
+        <v>429.7276306152344</v>
       </c>
       <c r="GN3" t="n">
-        <v>348.1791687011719</v>
+        <v>429.7221984863281</v>
       </c>
       <c r="GO3" t="n">
-        <v>354.4445190429688</v>
+        <v>430.6019287109375</v>
       </c>
       <c r="GP3" t="n">
-        <v>354.1546936035156</v>
+        <v>430.1938781738281</v>
       </c>
       <c r="GQ3" t="n">
-        <v>357.0139465332031</v>
+        <v>430.2879028320312</v>
       </c>
       <c r="GR3" t="n">
-        <v>360.3763732910156</v>
+        <v>428.5576782226562</v>
       </c>
       <c r="GS3" t="n">
-        <v>363.9206237792969</v>
+        <v>427.0776062011719</v>
       </c>
       <c r="GT3" t="n">
-        <v>364.7928771972656</v>
+        <v>425.3767700195312</v>
       </c>
       <c r="GU3" t="n">
-        <v>371.7802429199219</v>
+        <v>424.4066772460938</v>
       </c>
       <c r="GV3" t="n">
-        <v>379.5553894042969</v>
+        <v>425.2737426757812</v>
       </c>
       <c r="GW3" t="n">
-        <v>384.6435546875</v>
+        <v>426.2057495117188</v>
       </c>
       <c r="GX3" t="n">
-        <v>386.1571044921875</v>
+        <v>424.5849304199219</v>
       </c>
       <c r="GY3" t="n">
-        <v>390.3955383300781</v>
+        <v>420.709228515625</v>
       </c>
       <c r="GZ3" t="n">
-        <v>392.4645690917969</v>
+        <v>418.072998046875</v>
       </c>
       <c r="HA3" t="n">
-        <v>391.7341003417969</v>
+        <v>417.3370361328125</v>
       </c>
       <c r="HB3" t="n">
-        <v>397.9893188476562</v>
+        <v>415.2409362792969</v>
       </c>
       <c r="HC3" t="n">
-        <v>403.3884887695312</v>
+        <v>412.104248046875</v>
       </c>
       <c r="HD3" t="n">
-        <v>408.1726684570312</v>
+        <v>409.3779296875</v>
       </c>
       <c r="HE3" t="n">
-        <v>414.2625122070312</v>
+        <v>410.6268920898438</v>
       </c>
       <c r="HF3" t="n">
-        <v>425.440185546875</v>
+        <v>410.2603149414062</v>
       </c>
       <c r="HG3" t="n">
-        <v>430.5827941894531</v>
+        <v>411.3815307617188</v>
       </c>
       <c r="HH3" t="n">
-        <v>439.482421875</v>
+        <v>414.8382263183594</v>
       </c>
       <c r="HI3" t="n">
-        <v>445.8420104980469</v>
+        <v>416.3928833007812</v>
       </c>
       <c r="HJ3" t="n">
-        <v>455.1014099121094</v>
+        <v>423.3377075195312</v>
       </c>
       <c r="HK3" t="n">
-        <v>466.8886108398438</v>
+        <v>430.1003723144531</v>
       </c>
       <c r="HL3" t="n">
-        <v>482.1010131835938</v>
+        <v>435.3835754394531</v>
       </c>
       <c r="HM3" t="n">
-        <v>497.652099609375</v>
+        <v>438.2106323242188</v>
       </c>
       <c r="HN3" t="n">
-        <v>511.4203796386719</v>
+        <v>443.9878234863281</v>
       </c>
       <c r="HO3" t="n">
-        <v>523.771484375</v>
+        <v>440.8973693847656</v>
       </c>
       <c r="HP3" t="n">
-        <v>533.8762817382812</v>
+        <v>435.4945983886719</v>
       </c>
       <c r="HQ3" t="n">
-        <v>544.4536743164062</v>
+        <v>439.0172119140625</v>
       </c>
       <c r="HR3" t="n">
-        <v>560.2734375</v>
+        <v>438.5702209472656</v>
       </c>
       <c r="HS3" t="n">
-        <v>581.1219482421875</v>
+        <v>440.5161743164062</v>
       </c>
       <c r="HT3" t="n">
-        <v>612.1134643554688</v>
+        <v>442.390380859375</v>
       </c>
       <c r="HU3" t="n">
-        <v>644.9298095703125</v>
+        <v>444.5917358398438</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>445.0496215820312</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>445.23046875</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>444.1015625</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>443.6044006347656</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>435.4762268066406</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>437.0879821777344</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>441.001708984375</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>447.2531127929688</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>447.2114562988281</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>445.2434692382812</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>443.5869445800781</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>442.57861328125</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>444.7867126464844</v>
+      </c>
+      <c r="II3" t="n">
+        <v>444.3978576660156</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>441.9718933105469</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>434.4590454101562</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>434.9127197265625</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>437.5903015136719</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>441.6313171386719</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>442.4642028808594</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>441.0995788574219</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>439.363525390625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>440.202880859375</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>440.8312377929688</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>442.9781494140625</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>443.7398376464844</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>439.82470703125</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>439.4116821289062</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>434.4610900878906</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>430.8207702636719</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>430.9197998046875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>439.4189758300781</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>440.5478210449219</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>441.5536499023438</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>444.2905578613281</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>443.23681640625</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>445.376953125</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>444.1495666503906</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>444.709228515625</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>443.5889587402344</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>442.2807312011719</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>440.3185729980469</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>446.1025085449219</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>438.4520263671875</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>439.8911743164062</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>437.9202575683594</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>438.2044677734375</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>438.0203857421875</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>438.2099609375</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>438.8242797851562</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>438.8404541015625</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>438.63818359375</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>438.7035827636719</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>439.0484313964844</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>439.5023803710938</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>439.8417358398438</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>439.9042053222656</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>439.9435424804688</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>440.3327941894531</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>440.6575317382812</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>439.5473327636719</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>438.5953063964844</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>438.7877807617188</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>440.7681274414062</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>439.9058532714844</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>440.3518371582031</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>442.0080871582031</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>441.8535766601562</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>440.9455261230469</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>440.5033264160156</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>439.717529296875</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>438.8772583007812</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>439.2117309570312</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>439.8263244628906</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>438.2348937988281</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>436.9040222167969</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>437.73583984375</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>437.0559692382812</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>436.315185546875</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>436.4625244140625</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>436.6197204589844</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>436.6983337402344</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>437.8018798828125</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>445.2936096191406</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>444.9068908691406</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>449.7204895019531</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>448.5148620605469</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>450.9268188476562</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>456.2730102539062</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>463.4508666992188</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>472.9031372070312</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>484.758056640625</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>494.2947998046875</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>495.6916809082031</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>507.3846740722656</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>510.2282409667969</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>454.6300964355469</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>486.1993103027344</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>508.3368835449219</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>518.172119140625</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>533.8099365234375</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>522.2871704101562</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>535.2235717773438</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>545.5202026367188</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>567.8029174804688</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>570.3971557617188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>583.9168090820312</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>596.0022583007812</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>616.0169677734375</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>642.0971069335938</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>649.171630859375</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>647.2120361328125</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>613.2968139648438</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>584.8822631835938</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>575.9586181640625</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>585.10986328125</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>588.731201171875</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>590.2666015625</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>601.1858520507812</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>632.6693725585938</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>651.4435424804688</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>676.4210815429688</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>683.723388671875</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>672.7752685546875</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>666.29150390625</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>666.0967407226562</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>689.4431762695312</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>781.9232788085938</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>853.659912109375</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>824.6981811523438</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>855.6631469726562</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>867.1701049804688</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>861.1240844726562</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>822.6643676757812</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>800.2252807617188</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>823.2139892578125</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>802.1567993164062</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>807.57568359375</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>832.8433227539062</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>840.34521484375</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>879.45166015625</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>881.3189086914062</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>879.981201171875</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>874.7186889648438</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>830.1272583007812</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>849.5628051757812</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>849.3321533203125</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>855.9767456054688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>744.8419799804688</v>
+        <v>1009.813110351562</v>
       </c>
       <c r="B4" t="n">
-        <v>763.6021728515625</v>
+        <v>1012.975830078125</v>
       </c>
       <c r="C4" t="n">
-        <v>808.0126342773438</v>
+        <v>1013.05078125</v>
       </c>
       <c r="D4" t="n">
-        <v>861.9270629882812</v>
+        <v>1015.288513183594</v>
       </c>
       <c r="E4" t="n">
-        <v>807.2874145507812</v>
+        <v>1017.655029296875</v>
       </c>
       <c r="F4" t="n">
-        <v>902.6497802734375</v>
+        <v>1026.657592773438</v>
       </c>
       <c r="G4" t="n">
-        <v>860.443603515625</v>
+        <v>1044.339599609375</v>
       </c>
       <c r="H4" t="n">
-        <v>939.7664794921875</v>
+        <v>1054.994384765625</v>
       </c>
       <c r="I4" t="n">
-        <v>955.3218383789062</v>
+        <v>1064.634155273438</v>
       </c>
       <c r="J4" t="n">
-        <v>969.6480102539062</v>
+        <v>1083.126342773438</v>
       </c>
       <c r="K4" t="n">
-        <v>992.35791015625</v>
+        <v>1102.707275390625</v>
       </c>
       <c r="L4" t="n">
-        <v>1023.605163574219</v>
+        <v>1120.726440429688</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.36083984375</v>
+        <v>1173.319091796875</v>
       </c>
       <c r="N4" t="n">
-        <v>1098.893310546875</v>
+        <v>1191.152587890625</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.62939453125</v>
+        <v>1224.695434570312</v>
       </c>
       <c r="P4" t="n">
-        <v>1334.554443359375</v>
+        <v>1231.1162109375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1376.051879882812</v>
+        <v>1237.156127929688</v>
       </c>
       <c r="R4" t="n">
-        <v>1414.234741210938</v>
+        <v>1244.356201171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1449.355834960938</v>
+        <v>1249.927368164062</v>
       </c>
       <c r="T4" t="n">
-        <v>1487.24951171875</v>
+        <v>1262.65380859375</v>
       </c>
       <c r="U4" t="n">
-        <v>1528.543701171875</v>
+        <v>1273.08251953125</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.2216796875</v>
+        <v>1279.66064453125</v>
       </c>
       <c r="W4" t="n">
-        <v>1614.746337890625</v>
+        <v>1286.544311523438</v>
       </c>
       <c r="X4" t="n">
-        <v>1660.55908203125</v>
+        <v>1292.920654296875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1715.080444335938</v>
+        <v>1277.19189453125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1753.99853515625</v>
+        <v>1273.581420898438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1811.918212890625</v>
+        <v>1274.226318359375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1864.875</v>
+        <v>1277.019287109375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1909.91357421875</v>
+        <v>1288.835327148438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1944.31640625</v>
+        <v>1310.296020507812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1981.896118164062</v>
+        <v>1101.7080078125</v>
       </c>
       <c r="AF4" t="n">
-        <v>2025.563842773438</v>
+        <v>1098.647583007812</v>
       </c>
       <c r="AG4" t="n">
-        <v>2068.3173828125</v>
+        <v>1073.54345703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2099.19482421875</v>
+        <v>1111.720458984375</v>
       </c>
       <c r="AI4" t="n">
-        <v>2127.458740234375</v>
+        <v>1113.6376953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2158.4658203125</v>
+        <v>1150.679565429688</v>
       </c>
       <c r="AK4" t="n">
-        <v>2195.6240234375</v>
+        <v>1146.298583984375</v>
       </c>
       <c r="AL4" t="n">
-        <v>2123.956787109375</v>
+        <v>1163.243286132812</v>
       </c>
       <c r="AM4" t="n">
-        <v>2146.602783203125</v>
+        <v>1173.091064453125</v>
       </c>
       <c r="AN4" t="n">
-        <v>2147.5390625</v>
+        <v>1162.140625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2162.865478515625</v>
+        <v>1140.116821289062</v>
       </c>
       <c r="AP4" t="n">
-        <v>2183.514404296875</v>
+        <v>1091.461181640625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2210.8134765625</v>
+        <v>1088.645751953125</v>
       </c>
       <c r="AR4" t="n">
-        <v>2263.2021484375</v>
+        <v>1124.416870117188</v>
       </c>
       <c r="AS4" t="n">
-        <v>2326.560302734375</v>
+        <v>1142.222900390625</v>
       </c>
       <c r="AT4" t="n">
-        <v>2343.047607421875</v>
+        <v>1155.052856445312</v>
       </c>
       <c r="AU4" t="n">
-        <v>2365.09228515625</v>
+        <v>1201.408325195312</v>
       </c>
       <c r="AV4" t="n">
-        <v>2398.817626953125</v>
+        <v>1170.34521484375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2456.6005859375</v>
+        <v>1118.6083984375</v>
       </c>
       <c r="AX4" t="n">
-        <v>2507.206298828125</v>
+        <v>1126.707153320312</v>
       </c>
       <c r="AY4" t="n">
-        <v>2553.503173828125</v>
+        <v>1116.632568359375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2616.704345703125</v>
+        <v>1100.205078125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2694.095947265625</v>
+        <v>1081.974731445312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2748.7958984375</v>
+        <v>1067.993774414062</v>
       </c>
       <c r="BC4" t="n">
-        <v>2830.639404296875</v>
+        <v>1047.399047851562</v>
       </c>
       <c r="BD4" t="n">
-        <v>2903.409912109375</v>
+        <v>1047.1103515625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2930.9794921875</v>
+        <v>1056.764038085938</v>
       </c>
       <c r="BF4" t="n">
-        <v>3095.51171875</v>
+        <v>1067.330444335938</v>
       </c>
       <c r="BG4" t="n">
-        <v>3092.22412109375</v>
+        <v>1072.37841796875</v>
       </c>
       <c r="BH4" t="n">
-        <v>3111.524658203125</v>
+        <v>1070.965942382812</v>
       </c>
       <c r="BI4" t="n">
-        <v>3124.104248046875</v>
+        <v>1060.067626953125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3145.603759765625</v>
+        <v>1048.771484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>3184.385498046875</v>
+        <v>1048.646362304688</v>
       </c>
       <c r="BL4" t="n">
-        <v>3213.96435546875</v>
+        <v>1050.350219726562</v>
       </c>
       <c r="BM4" t="n">
-        <v>3236.08837890625</v>
+        <v>1042.03759765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>3199.88720703125</v>
+        <v>1039.52587890625</v>
       </c>
       <c r="BO4" t="n">
-        <v>3212.576904296875</v>
+        <v>1033.653076171875</v>
       </c>
       <c r="BP4" t="n">
-        <v>3244.76416015625</v>
+        <v>1032.76220703125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3211.24072265625</v>
+        <v>1026.282836914062</v>
       </c>
       <c r="BR4" t="n">
-        <v>3233.504150390625</v>
+        <v>1014.03466796875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3252.589599609375</v>
+        <v>999.7060546875</v>
       </c>
       <c r="BT4" t="n">
-        <v>3278.6630859375</v>
+        <v>985.990478515625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3283.172607421875</v>
+        <v>977.0274658203125</v>
       </c>
       <c r="BV4" t="n">
-        <v>3300.130859375</v>
+        <v>981.885498046875</v>
       </c>
       <c r="BW4" t="n">
-        <v>3386.7998046875</v>
+        <v>984.6958618164062</v>
       </c>
       <c r="BX4" t="n">
-        <v>3360.996337890625</v>
+        <v>985.32080078125</v>
       </c>
       <c r="BY4" t="n">
-        <v>3339.824462890625</v>
+        <v>980.2578735351562</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3409.49853515625</v>
+        <v>981.2322998046875</v>
       </c>
       <c r="CA4" t="n">
-        <v>3414.17626953125</v>
+        <v>982.9624633789062</v>
       </c>
       <c r="CB4" t="n">
-        <v>3422.846923828125</v>
+        <v>979.1527709960938</v>
       </c>
       <c r="CC4" t="n">
-        <v>3453.22265625</v>
+        <v>970.2786254882812</v>
       </c>
       <c r="CD4" t="n">
-        <v>3494.140869140625</v>
+        <v>960.0955200195312</v>
       </c>
       <c r="CE4" t="n">
-        <v>3452.781982421875</v>
+        <v>951.8291625976562</v>
       </c>
       <c r="CF4" t="n">
-        <v>3509.562744140625</v>
+        <v>948.1602172851562</v>
       </c>
       <c r="CG4" t="n">
-        <v>3444.940185546875</v>
+        <v>946.0765991210938</v>
       </c>
       <c r="CH4" t="n">
-        <v>3481.19482421875</v>
+        <v>943.9768676757812</v>
       </c>
       <c r="CI4" t="n">
-        <v>3514.598388671875</v>
+        <v>944.7035522460938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3495.416015625</v>
+        <v>1123.552368164062</v>
       </c>
       <c r="CK4" t="n">
-        <v>3537.2734375</v>
+        <v>1123.408081054688</v>
       </c>
       <c r="CL4" t="n">
-        <v>3709.831787109375</v>
+        <v>1123.065795898438</v>
       </c>
       <c r="CM4" t="n">
-        <v>3554.25048828125</v>
+        <v>1122.703491210938</v>
       </c>
       <c r="CN4" t="n">
-        <v>3598.896484375</v>
+        <v>1121.987670898438</v>
       </c>
       <c r="CO4" t="n">
-        <v>3655.92333984375</v>
+        <v>1121.275756835938</v>
       </c>
       <c r="CP4" t="n">
-        <v>3612.556396484375</v>
+        <v>1120.395874023438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3663.623046875</v>
+        <v>1119.346557617188</v>
       </c>
       <c r="CR4" t="n">
-        <v>3686.626220703125</v>
+        <v>1118.223022460938</v>
       </c>
       <c r="CS4" t="n">
-        <v>3606.5244140625</v>
+        <v>1114.896728515625</v>
       </c>
       <c r="CT4" t="n">
-        <v>3722.58642578125</v>
+        <v>1110.784545898438</v>
       </c>
       <c r="CU4" t="n">
-        <v>3660.96337890625</v>
+        <v>1108.825561523438</v>
       </c>
       <c r="CV4" t="n">
-        <v>3650.23974609375</v>
+        <v>1109.06005859375</v>
       </c>
       <c r="CW4" t="n">
-        <v>3644.55126953125</v>
+        <v>1109.60009765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>3669.9130859375</v>
+        <v>1111.468872070312</v>
       </c>
       <c r="CY4" t="n">
-        <v>3628.19970703125</v>
+        <v>1113.613403320312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3676.361328125</v>
+        <v>1122.147705078125</v>
       </c>
       <c r="DA4" t="n">
-        <v>3740.77587890625</v>
+        <v>1129.469482421875</v>
       </c>
       <c r="DB4" t="n">
-        <v>3747.150146484375</v>
+        <v>1131.85107421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>3778.97314453125</v>
+        <v>1134.592407226562</v>
       </c>
       <c r="DD4" t="n">
-        <v>3724.878662109375</v>
+        <v>1136.651733398438</v>
       </c>
       <c r="DE4" t="n">
-        <v>3666.74072265625</v>
+        <v>1139.317993164062</v>
       </c>
       <c r="DF4" t="n">
-        <v>3836.343994140625</v>
+        <v>1139.394897460938</v>
       </c>
       <c r="DG4" t="n">
-        <v>3773.27490234375</v>
+        <v>1139.607666015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3745.640869140625</v>
+        <v>1140.605224609375</v>
       </c>
       <c r="DI4" t="n">
-        <v>3761.89404296875</v>
+        <v>996.8771362304688</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3753.824462890625</v>
+        <v>1017.703369140625</v>
       </c>
       <c r="DK4" t="n">
-        <v>3737.68408203125</v>
+        <v>1035.579956054688</v>
       </c>
       <c r="DL4" t="n">
-        <v>3732.195556640625</v>
+        <v>1035.885375976562</v>
       </c>
       <c r="DM4" t="n">
-        <v>3740.131103515625</v>
+        <v>1035.691040039062</v>
       </c>
       <c r="DN4" t="n">
-        <v>3718.786376953125</v>
+        <v>1035.452392578125</v>
       </c>
       <c r="DO4" t="n">
-        <v>3588.26953125</v>
+        <v>1033.622924804688</v>
       </c>
       <c r="DP4" t="n">
-        <v>3613.75927734375</v>
+        <v>1032.44921875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3578.83984375</v>
+        <v>1030.286865234375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3586.178466796875</v>
+        <v>1028.628173828125</v>
       </c>
       <c r="DS4" t="n">
-        <v>3589.91748046875</v>
+        <v>1026.552734375</v>
       </c>
       <c r="DT4" t="n">
-        <v>3557.95458984375</v>
+        <v>1026.36865234375</v>
       </c>
       <c r="DU4" t="n">
-        <v>3531.54736328125</v>
+        <v>1021.171203613281</v>
       </c>
       <c r="DV4" t="n">
-        <v>3426.78271484375</v>
+        <v>1021.382995605469</v>
       </c>
       <c r="DW4" t="n">
-        <v>3477.166259765625</v>
+        <v>1025.131713867188</v>
       </c>
       <c r="DX4" t="n">
-        <v>3387.62646484375</v>
+        <v>1028.694213867188</v>
       </c>
       <c r="DY4" t="n">
-        <v>3261.7607421875</v>
+        <v>1035.4287109375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3420.212158203125</v>
+        <v>1045.721069335938</v>
       </c>
       <c r="EA4" t="n">
-        <v>3527.697509765625</v>
+        <v>1040.245239257812</v>
       </c>
       <c r="EB4" t="n">
-        <v>3463.757080078125</v>
+        <v>1042.888916015625</v>
       </c>
       <c r="EC4" t="n">
-        <v>3478.3935546875</v>
+        <v>1056.79150390625</v>
       </c>
       <c r="ED4" t="n">
-        <v>3549.290771484375</v>
+        <v>1065.770141601562</v>
       </c>
       <c r="EE4" t="n">
-        <v>3520.10546875</v>
+        <v>1090.140380859375</v>
       </c>
       <c r="EF4" t="n">
-        <v>3456.553466796875</v>
+        <v>1102.766357421875</v>
       </c>
       <c r="EG4" t="n">
-        <v>3403.822265625</v>
+        <v>1140.156616210938</v>
       </c>
       <c r="EH4" t="n">
-        <v>3453.78369140625</v>
+        <v>1153.418579101562</v>
       </c>
       <c r="EI4" t="n">
-        <v>3591.376953125</v>
+        <v>1157.765991210938</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3425.895263671875</v>
+        <v>1160.036254882812</v>
       </c>
       <c r="EK4" t="n">
-        <v>3405.62451171875</v>
+        <v>1156.132690429688</v>
       </c>
       <c r="EL4" t="n">
-        <v>3341.794189453125</v>
+        <v>1146.349853515625</v>
       </c>
       <c r="EM4" t="n">
-        <v>3272.7177734375</v>
+        <v>1150.059692382812</v>
       </c>
       <c r="EN4" t="n">
-        <v>3302.0107421875</v>
+        <v>1169.99853515625</v>
       </c>
       <c r="EO4" t="n">
-        <v>3303.62353515625</v>
+        <v>1227.445190429688</v>
       </c>
       <c r="EP4" t="n">
-        <v>3279.25</v>
+        <v>1312.181396484375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3293.54296875</v>
+        <v>1449.317749023438</v>
       </c>
       <c r="ER4" t="n">
-        <v>3294.3974609375</v>
+        <v>1478.059814453125</v>
       </c>
       <c r="ES4" t="n">
-        <v>3266.155029296875</v>
+        <v>1525.334716796875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3276.341064453125</v>
+        <v>1557.460205078125</v>
       </c>
       <c r="EU4" t="n">
-        <v>3313.42919921875</v>
+        <v>1578.557983398438</v>
       </c>
       <c r="EV4" t="n">
-        <v>3324.2216796875</v>
+        <v>1607.207763671875</v>
       </c>
       <c r="EW4" t="n">
-        <v>3350.010009765625</v>
+        <v>1662.584716796875</v>
       </c>
       <c r="EX4" t="n">
-        <v>3398.33154296875</v>
+        <v>1707.084838867188</v>
       </c>
       <c r="EY4" t="n">
-        <v>3365.1044921875</v>
+        <v>1744.532470703125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3267.22216796875</v>
+        <v>1770.91455078125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3219.2177734375</v>
+        <v>1801.168334960938</v>
       </c>
       <c r="FB4" t="n">
-        <v>3322.369873046875</v>
+        <v>1808.610717773438</v>
       </c>
       <c r="FC4" t="n">
-        <v>3341.787841796875</v>
+        <v>1854.798095703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>3386.77392578125</v>
+        <v>1888.802734375</v>
       </c>
       <c r="FE4" t="n">
-        <v>3336.5029296875</v>
+        <v>1905.880004882812</v>
       </c>
       <c r="FF4" t="n">
-        <v>3045.6689453125</v>
+        <v>1929.232299804688</v>
       </c>
       <c r="FG4" t="n">
-        <v>3023.419677734375</v>
+        <v>1958.047119140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3076.564453125</v>
+        <v>1968.962158203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>3077.75341796875</v>
+        <v>2013.870361328125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3082.91357421875</v>
+        <v>2035.455078125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3094.405517578125</v>
+        <v>1827.705444335938</v>
       </c>
       <c r="FL4" t="n">
-        <v>3198.09521484375</v>
+        <v>1838.478759765625</v>
       </c>
       <c r="FM4" t="n">
-        <v>3207.592041015625</v>
+        <v>1888.9755859375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3368.15380859375</v>
+        <v>1910.702270507812</v>
       </c>
       <c r="FO4" t="n">
-        <v>3305.6171875</v>
+        <v>1937.447143554688</v>
       </c>
       <c r="FP4" t="n">
-        <v>3272.44775390625</v>
+        <v>2002.890380859375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3243.483642578125</v>
+        <v>2065.96728515625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3370.4921875</v>
+        <v>2103.316650390625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3379.0966796875</v>
+        <v>2108.7890625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3342.97607421875</v>
+        <v>2107.953857421875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3274.38623046875</v>
+        <v>2097.7705078125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3413.85986328125</v>
+        <v>2084.325439453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>3240.121826171875</v>
+        <v>2094.25</v>
       </c>
       <c r="FX4" t="n">
-        <v>3246.494873046875</v>
+        <v>2078.19091796875</v>
       </c>
       <c r="FY4" t="n">
-        <v>3239.6513671875</v>
+        <v>2058.830322265625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3254.0087890625</v>
+        <v>2059.724365234375</v>
       </c>
       <c r="GA4" t="n">
-        <v>3291.552734375</v>
+        <v>2070.2216796875</v>
       </c>
       <c r="GB4" t="n">
-        <v>3271.172607421875</v>
+        <v>2087.109375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3249.04541015625</v>
+        <v>2115.717041015625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3232.267822265625</v>
+        <v>2162.56591796875</v>
       </c>
       <c r="GE4" t="n">
-        <v>3216.32421875</v>
+        <v>2157.069580078125</v>
       </c>
       <c r="GF4" t="n">
-        <v>3167.2138671875</v>
+        <v>2124.294921875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3088.06494140625</v>
+        <v>2117.3505859375</v>
       </c>
       <c r="GH4" t="n">
-        <v>3092.75439453125</v>
+        <v>2088.8466796875</v>
       </c>
       <c r="GI4" t="n">
-        <v>3081.9775390625</v>
+        <v>2088.580322265625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2973.29345703125</v>
+        <v>2308.74072265625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2749.760009765625</v>
+        <v>2309.550537109375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2635.424072265625</v>
+        <v>2309.77392578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2689.694580078125</v>
+        <v>2309.924072265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2593.805419921875</v>
+        <v>2309.839599609375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2596.725830078125</v>
+        <v>2305.202880859375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2530.88330078125</v>
+        <v>2295.855224609375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2510.067138671875</v>
+        <v>2275.477783203125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2469.087646484375</v>
+        <v>2270.501953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2372.85302734375</v>
+        <v>2266.63525390625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2350.804931640625</v>
+        <v>2259.65380859375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2280.87109375</v>
+        <v>2248.681640625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2189.0283203125</v>
+        <v>2236.67919921875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2173.31884765625</v>
+        <v>2230.967529296875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2159.959228515625</v>
+        <v>2235.384765625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2093.9951171875</v>
+        <v>2227.66259765625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2041.448120117188</v>
+        <v>1996.244384765625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1983.252197265625</v>
+        <v>1996.137573242188</v>
       </c>
       <c r="HB4" t="n">
-        <v>1928.087158203125</v>
+        <v>2007.2421875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1877.265625</v>
+        <v>2001.15234375</v>
       </c>
       <c r="HD4" t="n">
-        <v>1860.749145507812</v>
+        <v>1993.16748046875</v>
       </c>
       <c r="HE4" t="n">
-        <v>1820.57373046875</v>
+        <v>1996.167724609375</v>
       </c>
       <c r="HF4" t="n">
-        <v>1700.6376953125</v>
+        <v>2003.900024414062</v>
       </c>
       <c r="HG4" t="n">
-        <v>1629.76318359375</v>
+        <v>2005.265869140625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1548.426391601562</v>
+        <v>1979.745971679688</v>
       </c>
       <c r="HI4" t="n">
-        <v>1484.108276367188</v>
+        <v>1967.942138671875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1417.609008789062</v>
+        <v>1996.954345703125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1345.660034179688</v>
+        <v>2027.34326171875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1262.41552734375</v>
+        <v>2031.30322265625</v>
       </c>
       <c r="HM4" t="n">
-        <v>1184.24609375</v>
+        <v>2017.486694335938</v>
       </c>
       <c r="HN4" t="n">
-        <v>1096.527465820312</v>
+        <v>2012.5439453125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1042.99560546875</v>
+        <v>2005.90576171875</v>
       </c>
       <c r="HP4" t="n">
-        <v>995.7196044921875</v>
+        <v>1993.405517578125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>945.8178100585938</v>
+        <v>1961.759765625</v>
       </c>
       <c r="HR4" t="n">
-        <v>900.4902954101562</v>
+        <v>1961.79150390625</v>
       </c>
       <c r="HS4" t="n">
-        <v>840.6554565429688</v>
+        <v>1951.041748046875</v>
       </c>
       <c r="HT4" t="n">
-        <v>787.5811157226562</v>
+        <v>1934.85107421875</v>
       </c>
       <c r="HU4" t="n">
-        <v>780.606201171875</v>
+        <v>1940.64208984375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1946.771240234375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1941.6044921875</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1930.301513671875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1897.845581054688</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1868.740356445312</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1842.93798828125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1864.848510742188</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1920.133178710938</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1932.16162109375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1933.943725585938</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1892.976318359375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1876.123779296875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1940.469116210938</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1928.32666015625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1920.808837890625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2157.17333984375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2161.611572265625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2155.369873046875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1917.491577148438</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1912.29296875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1900.93212890625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1911.0419921875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1889.115966796875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1882.808471679688</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1886.22998046875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1899.561279296875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1883.732055664062</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1881.61572265625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1868.394775390625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1843.13525390625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1842.337524414062</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1910.573120117188</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1912.12158203125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1894.322021484375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1932.626586914062</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1908.097045898438</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1967.477905273438</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1944.355224609375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1950.34423828125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1957.2451171875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1974.2412109375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1982.644409179688</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1908.77001953125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1923.61376953125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1921.86962890625</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2140.53271484375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2137.228271484375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2133.80859375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2130.32763671875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2123.71435546875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2123.53515625</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2122.864013671875</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2121.3212890625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2117.94091796875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2113.704345703125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2110.91552734375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2110.67529296875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2110.604248046875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2110.53662109375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2109.600341796875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2105.568115234375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2100.970458984375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2100.86083984375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2102.4853515625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2103.12890625</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2103.274658203125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2103.87646484375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2104.599609375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2106.04345703125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2108.422607421875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2112.369873046875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2116.736083984375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2116.774169921875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2118.4814453125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2119.456787109375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2125.193359375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2130.51123046875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2135.400390625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2131.98681640625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2128.1240234375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2125.879638671875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2123.89453125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2110.577880859375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1807.835327148438</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1761.084594726562</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1759.748413085938</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>1737.127563476562</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1719.994262695312</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>1687.214721679688</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1651.779052734375</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1610.3203125</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1551.809204101562</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1488.88720703125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1391.357788085938</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1348.878662109375</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1375.75830078125</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1576.88525390625</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1403.479614257812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1295.126098632812</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1204.160278320312</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1117.647827148438</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1163.456787109375</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1042.38134765625</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>978.7153930664062</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>903.0757446289062</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>847.2534790039062</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>808.9213256835938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>763.7720947265625</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>731.0418090820312</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>710.1378173828125</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>704.381103515625</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>710.9791259765625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>773.9193725585938</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>835.2943115234375</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>860.6583251953125</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>899.0538940429688</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>927.8867797851562</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>944.2427978515625</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>972.5386962890625</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>979.4111328125</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>990.0289306640625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>1008.199645996094</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>1005.271301269531</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>1017.540344238281</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>1033.721313476562</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>1025.711669921875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>977.968505859375</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>834.5818481445312</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>676.1806030273438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>708.9486083984375</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>675.0945434570312</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>707.4071655273438</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>699.77294921875</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>720.55517578125</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>748.197509765625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>707.0753784179688</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>674.3186645507812</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>643.9922485351562</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>646.158447265625</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>644.5657348632812</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>609.6253051757812</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>601.2921142578125</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>602.1524047851562</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>619.3134765625</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>670.9664306640625</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>653.045654296875</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>649.744384765625</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>645.65478515625</v>
       </c>
     </row>
   </sheetData>

--- a/right_knee_Data_Variable.xlsx
+++ b/right_knee_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>310.2254333496094</v>
+        <v>256.2650146484375</v>
       </c>
       <c r="B2" t="n">
-        <v>314.5982666015625</v>
+        <v>257.8922729492188</v>
       </c>
       <c r="C2" t="n">
-        <v>322.8191528320312</v>
+        <v>261.6159057617188</v>
       </c>
       <c r="D2" t="n">
-        <v>325.667724609375</v>
+        <v>265.4356384277344</v>
       </c>
       <c r="E2" t="n">
-        <v>328.3293151855469</v>
+        <v>266.3548889160156</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7501831054688</v>
+        <v>265.8773193359375</v>
       </c>
       <c r="G2" t="n">
-        <v>337.1487731933594</v>
+        <v>265.4872131347656</v>
       </c>
       <c r="H2" t="n">
-        <v>344.3684692382812</v>
+        <v>266.1481628417969</v>
       </c>
       <c r="I2" t="n">
-        <v>351.8695678710938</v>
+        <v>266.2735290527344</v>
       </c>
       <c r="J2" t="n">
-        <v>357.89208984375</v>
+        <v>267.9873352050781</v>
       </c>
       <c r="K2" t="n">
-        <v>364.662841796875</v>
+        <v>271.1847839355469</v>
       </c>
       <c r="L2" t="n">
-        <v>370.411865234375</v>
+        <v>274.5675659179688</v>
       </c>
       <c r="M2" t="n">
-        <v>392.2938537597656</v>
+        <v>278.5810852050781</v>
       </c>
       <c r="N2" t="n">
-        <v>394.1546020507812</v>
+        <v>284.171875</v>
       </c>
       <c r="O2" t="n">
-        <v>395.1720581054688</v>
+        <v>317.5835266113281</v>
       </c>
       <c r="P2" t="n">
-        <v>394.45654296875</v>
+        <v>318.0527648925781</v>
       </c>
       <c r="Q2" t="n">
-        <v>394.5002746582031</v>
+        <v>318.4409790039062</v>
       </c>
       <c r="R2" t="n">
-        <v>394.0285949707031</v>
+        <v>319.2288818359375</v>
       </c>
       <c r="S2" t="n">
-        <v>392.8497924804688</v>
+        <v>319.1610412597656</v>
       </c>
       <c r="T2" t="n">
-        <v>391.009033203125</v>
+        <v>319.0243225097656</v>
       </c>
       <c r="U2" t="n">
-        <v>387.5975036621094</v>
+        <v>318.8642272949219</v>
       </c>
       <c r="V2" t="n">
-        <v>383.1727600097656</v>
+        <v>319.0042419433594</v>
       </c>
       <c r="W2" t="n">
-        <v>378.5051879882812</v>
+        <v>320.0950927734375</v>
       </c>
       <c r="X2" t="n">
-        <v>374.3789978027344</v>
+        <v>324.56298828125</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.6719970703125</v>
+        <v>330.5313720703125</v>
       </c>
       <c r="Z2" t="n">
-        <v>367.0429077148438</v>
+        <v>333.9337463378906</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2253723144531</v>
+        <v>333.8711853027344</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.2676391601562</v>
+        <v>334.168701171875</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.2691650390625</v>
+        <v>334.1334228515625</v>
       </c>
       <c r="AD2" t="n">
-        <v>354.5977172851562</v>
+        <v>333.0459594726562</v>
       </c>
       <c r="AE2" t="n">
-        <v>357.3162841796875</v>
+        <v>332.141357421875</v>
       </c>
       <c r="AF2" t="n">
-        <v>357.6284484863281</v>
+        <v>328.8517761230469</v>
       </c>
       <c r="AG2" t="n">
-        <v>358.37353515625</v>
+        <v>323.5919189453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>357.409912109375</v>
+        <v>325.5624694824219</v>
       </c>
       <c r="AI2" t="n">
-        <v>357.2201843261719</v>
+        <v>327.4088134765625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>356.0974731445312</v>
+        <v>328.4308471679688</v>
       </c>
       <c r="AK2" t="n">
-        <v>355.8694152832031</v>
+        <v>328.0568237304688</v>
       </c>
       <c r="AL2" t="n">
-        <v>355.1238403320312</v>
+        <v>327.2215270996094</v>
       </c>
       <c r="AM2" t="n">
-        <v>354.845947265625</v>
+        <v>327.340576171875</v>
       </c>
       <c r="AN2" t="n">
-        <v>355.468017578125</v>
+        <v>328.55908203125</v>
       </c>
       <c r="AO2" t="n">
-        <v>356.1144714355469</v>
+        <v>329.7171630859375</v>
       </c>
       <c r="AP2" t="n">
-        <v>356.7584533691406</v>
+        <v>333.6151733398438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>354.9180297851562</v>
+        <v>337.2976989746094</v>
       </c>
       <c r="AR2" t="n">
-        <v>352.2272033691406</v>
+        <v>335.4866943359375</v>
       </c>
       <c r="AS2" t="n">
-        <v>351.6824645996094</v>
+        <v>328.9176025390625</v>
       </c>
       <c r="AT2" t="n">
-        <v>351.2070922851562</v>
+        <v>321.3641967773438</v>
       </c>
       <c r="AU2" t="n">
-        <v>377.5782470703125</v>
+        <v>321.4578552246094</v>
       </c>
       <c r="AV2" t="n">
-        <v>375.2720642089844</v>
+        <v>319.6253356933594</v>
       </c>
       <c r="AW2" t="n">
-        <v>357.3215942382812</v>
+        <v>319.3078002929688</v>
       </c>
       <c r="AX2" t="n">
-        <v>352.7216186523438</v>
+        <v>320.4656372070312</v>
       </c>
       <c r="AY2" t="n">
-        <v>353.5397338867188</v>
+        <v>321.787353515625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>354.0650024414062</v>
+        <v>324.5509033203125</v>
       </c>
       <c r="BA2" t="n">
-        <v>354.0000610351562</v>
+        <v>326.5711669921875</v>
       </c>
       <c r="BB2" t="n">
-        <v>351.6882934570312</v>
+        <v>326.82568359375</v>
       </c>
       <c r="BC2" t="n">
-        <v>339.280029296875</v>
+        <v>327.3348388671875</v>
       </c>
       <c r="BD2" t="n">
-        <v>320.2868041992188</v>
+        <v>326.9622802734375</v>
       </c>
       <c r="BE2" t="n">
-        <v>300.0023803710938</v>
+        <v>326.6307983398438</v>
       </c>
       <c r="BF2" t="n">
-        <v>293.5405883789062</v>
+        <v>326.3572692871094</v>
       </c>
       <c r="BG2" t="n">
-        <v>296.8258361816406</v>
+        <v>326.31005859375</v>
       </c>
       <c r="BH2" t="n">
-        <v>296.6435546875</v>
+        <v>326.3114013671875</v>
       </c>
       <c r="BI2" t="n">
-        <v>294.9367065429688</v>
+        <v>326.4827880859375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>293.0243835449219</v>
+        <v>326.1145629882812</v>
       </c>
       <c r="BK2" t="n">
-        <v>290.5037231445312</v>
+        <v>326.2002868652344</v>
       </c>
       <c r="BL2" t="n">
-        <v>290.3518676757812</v>
+        <v>326.5727233886719</v>
       </c>
       <c r="BM2" t="n">
-        <v>288.2500915527344</v>
+        <v>326.4844970703125</v>
       </c>
       <c r="BN2" t="n">
-        <v>286.2388610839844</v>
+        <v>326.3583679199219</v>
       </c>
       <c r="BO2" t="n">
-        <v>285.29931640625</v>
+        <v>326.3907470703125</v>
       </c>
       <c r="BP2" t="n">
-        <v>283.748046875</v>
+        <v>326.3070983886719</v>
       </c>
       <c r="BQ2" t="n">
-        <v>277.9113159179688</v>
+        <v>325.6136779785156</v>
       </c>
       <c r="BR2" t="n">
-        <v>270.448974609375</v>
+        <v>325.37939453125</v>
       </c>
       <c r="BS2" t="n">
-        <v>268.5790100097656</v>
+        <v>325.4590148925781</v>
       </c>
       <c r="BT2" t="n">
-        <v>267.2112731933594</v>
+        <v>326.0073547363281</v>
       </c>
       <c r="BU2" t="n">
-        <v>267.0646667480469</v>
+        <v>326.2974853515625</v>
       </c>
       <c r="BV2" t="n">
-        <v>268.8908996582031</v>
+        <v>326.9900817871094</v>
       </c>
       <c r="BW2" t="n">
-        <v>271.2939453125</v>
+        <v>327.8229064941406</v>
       </c>
       <c r="BX2" t="n">
-        <v>274.1612854003906</v>
+        <v>327.7308959960938</v>
       </c>
       <c r="BY2" t="n">
-        <v>282.11328125</v>
+        <v>327.69677734375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>284.2450866699219</v>
+        <v>327.794921875</v>
       </c>
       <c r="CA2" t="n">
-        <v>286.167236328125</v>
+        <v>328.2107849121094</v>
       </c>
       <c r="CB2" t="n">
-        <v>288.4710083007812</v>
+        <v>327.9380798339844</v>
       </c>
       <c r="CC2" t="n">
-        <v>291.3590393066406</v>
+        <v>327.9631958007812</v>
       </c>
       <c r="CD2" t="n">
-        <v>295.4765625</v>
+        <v>327.9798889160156</v>
       </c>
       <c r="CE2" t="n">
-        <v>305.3927307128906</v>
+        <v>328.0611572265625</v>
       </c>
       <c r="CF2" t="n">
-        <v>312.4042663574219</v>
+        <v>328.3456420898438</v>
       </c>
       <c r="CG2" t="n">
-        <v>318.5242919921875</v>
+        <v>328.3052978515625</v>
       </c>
       <c r="CH2" t="n">
-        <v>323.5830688476562</v>
+        <v>328.0783081054688</v>
       </c>
       <c r="CI2" t="n">
-        <v>327.05078125</v>
+        <v>328.0331115722656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>319.4044799804688</v>
+        <v>328.2648010253906</v>
       </c>
       <c r="CK2" t="n">
-        <v>322.4325866699219</v>
+        <v>328.6731567382812</v>
       </c>
       <c r="CL2" t="n">
-        <v>325.1109008789062</v>
+        <v>329.0379333496094</v>
       </c>
       <c r="CM2" t="n">
-        <v>327.7477416992188</v>
+        <v>328.9361877441406</v>
       </c>
       <c r="CN2" t="n">
-        <v>331.2196655273438</v>
+        <v>328.935791015625</v>
       </c>
       <c r="CO2" t="n">
-        <v>332.4781494140625</v>
+        <v>328.9747619628906</v>
       </c>
       <c r="CP2" t="n">
-        <v>333.9346313476562</v>
+        <v>329.016845703125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>335.3731689453125</v>
+        <v>329.0551147460938</v>
       </c>
       <c r="CR2" t="n">
-        <v>336.2974548339844</v>
+        <v>329.0506591796875</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.1170654296875</v>
+        <v>329.0572509765625</v>
       </c>
       <c r="CT2" t="n">
-        <v>337.5661926269531</v>
+        <v>329.1153564453125</v>
       </c>
       <c r="CU2" t="n">
-        <v>337.8191528320312</v>
+        <v>329.17626953125</v>
       </c>
       <c r="CV2" t="n">
-        <v>336.8163757324219</v>
+        <v>329.3158569335938</v>
       </c>
       <c r="CW2" t="n">
-        <v>335.5424194335938</v>
+        <v>329.472900390625</v>
       </c>
       <c r="CX2" t="n">
-        <v>331.8169555664062</v>
+        <v>329.624267578125</v>
       </c>
       <c r="CY2" t="n">
-        <v>328.2073364257812</v>
+        <v>330.1539306640625</v>
       </c>
       <c r="CZ2" t="n">
-        <v>320.5074462890625</v>
+        <v>330.0393676757812</v>
       </c>
       <c r="DA2" t="n">
-        <v>317.6910705566406</v>
+        <v>330.0765686035156</v>
       </c>
       <c r="DB2" t="n">
-        <v>315.6924743652344</v>
+        <v>330.035400390625</v>
       </c>
       <c r="DC2" t="n">
-        <v>312.5914916992188</v>
+        <v>329.9578247070312</v>
       </c>
       <c r="DD2" t="n">
-        <v>308.5101013183594</v>
+        <v>330.025390625</v>
       </c>
       <c r="DE2" t="n">
-        <v>302.2157897949219</v>
+        <v>329.9619750976562</v>
       </c>
       <c r="DF2" t="n">
-        <v>297.641357421875</v>
+        <v>329.878173828125</v>
       </c>
       <c r="DG2" t="n">
-        <v>296.3964233398438</v>
+        <v>329.2621154785156</v>
       </c>
       <c r="DH2" t="n">
-        <v>293.4560852050781</v>
+        <v>328.8848266601562</v>
       </c>
       <c r="DI2" t="n">
-        <v>280.4938354492188</v>
+        <v>328.4880065917969</v>
       </c>
       <c r="DJ2" t="n">
-        <v>273.5737609863281</v>
+        <v>327.9271240234375</v>
       </c>
       <c r="DK2" t="n">
-        <v>271.0347595214844</v>
+        <v>328.3384704589844</v>
       </c>
       <c r="DL2" t="n">
-        <v>271.3012390136719</v>
+        <v>329.3023986816406</v>
       </c>
       <c r="DM2" t="n">
-        <v>271.5876159667969</v>
+        <v>330.5477600097656</v>
       </c>
       <c r="DN2" t="n">
-        <v>271.5408935546875</v>
+        <v>330.4485473632812</v>
       </c>
       <c r="DO2" t="n">
-        <v>271.3064880371094</v>
+        <v>331.0850524902344</v>
       </c>
       <c r="DP2" t="n">
-        <v>271.2268676757812</v>
+        <v>330.3509521484375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>271.0517883300781</v>
+        <v>327.5165405273438</v>
       </c>
       <c r="DR2" t="n">
-        <v>270.9087219238281</v>
+        <v>325.9439392089844</v>
       </c>
       <c r="DS2" t="n">
-        <v>270.8359069824219</v>
+        <v>324.7718811035156</v>
       </c>
       <c r="DT2" t="n">
-        <v>270.8633422851562</v>
+        <v>325.1047973632812</v>
       </c>
       <c r="DU2" t="n">
-        <v>270.3726501464844</v>
+        <v>325.412353515625</v>
       </c>
       <c r="DV2" t="n">
-        <v>270.1246643066406</v>
+        <v>325.453125</v>
       </c>
       <c r="DW2" t="n">
-        <v>272.4338684082031</v>
+        <v>326.08056640625</v>
       </c>
       <c r="DX2" t="n">
-        <v>277.1294555664062</v>
+        <v>327.2764282226562</v>
       </c>
       <c r="DY2" t="n">
-        <v>281.9411315917969</v>
+        <v>329.8729858398438</v>
       </c>
       <c r="DZ2" t="n">
-        <v>282.5104370117188</v>
+        <v>333.0573120117188</v>
       </c>
       <c r="EA2" t="n">
-        <v>280.4257507324219</v>
+        <v>327.8079223632812</v>
       </c>
       <c r="EB2" t="n">
-        <v>282.1469421386719</v>
+        <v>321.8266296386719</v>
       </c>
       <c r="EC2" t="n">
-        <v>299.2469482421875</v>
+        <v>320.4796752929688</v>
       </c>
       <c r="ED2" t="n">
-        <v>312.3079223632812</v>
+        <v>332.15380859375</v>
       </c>
       <c r="EE2" t="n">
-        <v>327.5818481445312</v>
+        <v>332.8372497558594</v>
       </c>
       <c r="EF2" t="n">
-        <v>346.0020446777344</v>
+        <v>333.3397827148438</v>
       </c>
       <c r="EG2" t="n">
-        <v>366.874755859375</v>
+        <v>333.8016357421875</v>
       </c>
       <c r="EH2" t="n">
-        <v>374.4378051757812</v>
+        <v>332.6111450195312</v>
       </c>
       <c r="EI2" t="n">
-        <v>388.0173950195312</v>
+        <v>332.2455139160156</v>
       </c>
       <c r="EJ2" t="n">
-        <v>388.056884765625</v>
+        <v>327.5610656738281</v>
       </c>
       <c r="EK2" t="n">
-        <v>388.8849487304688</v>
+        <v>319.8001403808594</v>
       </c>
       <c r="EL2" t="n">
-        <v>391.1337280273438</v>
+        <v>322.1414794921875</v>
       </c>
       <c r="EM2" t="n">
-        <v>407.0172729492188</v>
+        <v>322.55419921875</v>
       </c>
       <c r="EN2" t="n">
-        <v>408.8720092773438</v>
+        <v>322.4427490234375</v>
       </c>
       <c r="EO2" t="n">
-        <v>418.618408203125</v>
+        <v>322.5866394042969</v>
       </c>
       <c r="EP2" t="n">
-        <v>394.733642578125</v>
+        <v>322.675537109375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>435.0067138671875</v>
+        <v>322.5400390625</v>
       </c>
       <c r="ER2" t="n">
-        <v>435.3524780273438</v>
+        <v>332.3870849609375</v>
       </c>
       <c r="ES2" t="n">
-        <v>434.3477172851562</v>
+        <v>337.41552734375</v>
       </c>
       <c r="ET2" t="n">
-        <v>436.9691772460938</v>
+        <v>334.1669006347656</v>
       </c>
       <c r="EU2" t="n">
-        <v>436.614013671875</v>
+        <v>333.21435546875</v>
       </c>
       <c r="EV2" t="n">
-        <v>434.8317260742188</v>
+        <v>334.3833618164062</v>
       </c>
       <c r="EW2" t="n">
-        <v>435.6319580078125</v>
+        <v>331.6539306640625</v>
       </c>
       <c r="EX2" t="n">
-        <v>436.5650024414062</v>
+        <v>330.8367614746094</v>
       </c>
       <c r="EY2" t="n">
-        <v>433.9258117675781</v>
+        <v>330.6677551269531</v>
       </c>
       <c r="EZ2" t="n">
-        <v>432.6069946289062</v>
+        <v>329.8655395507812</v>
       </c>
       <c r="FA2" t="n">
-        <v>431.2615356445312</v>
+        <v>328.3356018066406</v>
       </c>
       <c r="FB2" t="n">
-        <v>431.9168701171875</v>
+        <v>319.0547485351562</v>
       </c>
       <c r="FC2" t="n">
-        <v>429.1025390625</v>
+        <v>301.7059020996094</v>
       </c>
       <c r="FD2" t="n">
-        <v>427.615966796875</v>
+        <v>301.6343994140625</v>
       </c>
       <c r="FE2" t="n">
-        <v>426.974365234375</v>
+        <v>298.5046997070312</v>
       </c>
       <c r="FF2" t="n">
-        <v>425.58251953125</v>
+        <v>311.7926330566406</v>
       </c>
       <c r="FG2" t="n">
-        <v>424.0350341796875</v>
+        <v>319.7759399414062</v>
       </c>
       <c r="FH2" t="n">
-        <v>424.3536376953125</v>
+        <v>325.0280456542969</v>
       </c>
       <c r="FI2" t="n">
-        <v>424.101318359375</v>
+        <v>320.89453125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>424.0581665039062</v>
+        <v>307.5106506347656</v>
       </c>
       <c r="FK2" t="n">
-        <v>447.6373901367188</v>
+        <v>308.2389831542969</v>
       </c>
       <c r="FL2" t="n">
-        <v>446.2362060546875</v>
+        <v>307.1209411621094</v>
       </c>
       <c r="FM2" t="n">
-        <v>439.2186889648438</v>
+        <v>307.1982727050781</v>
       </c>
       <c r="FN2" t="n">
-        <v>435.0170288085938</v>
+        <v>310.8771667480469</v>
       </c>
       <c r="FO2" t="n">
-        <v>429.9955444335938</v>
+        <v>313.6806335449219</v>
       </c>
       <c r="FP2" t="n">
-        <v>420.4432983398438</v>
+        <v>313.5271911621094</v>
       </c>
       <c r="FQ2" t="n">
-        <v>413.3529052734375</v>
+        <v>313.558349609375</v>
       </c>
       <c r="FR2" t="n">
-        <v>407.0761108398438</v>
+        <v>314.3717346191406</v>
       </c>
       <c r="FS2" t="n">
-        <v>399.8518371582031</v>
+        <v>315.3217163085938</v>
       </c>
       <c r="FT2" t="n">
-        <v>397.8037109375</v>
+        <v>315.6352844238281</v>
       </c>
       <c r="FU2" t="n">
-        <v>397.5868530273438</v>
+        <v>314.3540344238281</v>
       </c>
       <c r="FV2" t="n">
-        <v>397.5517578125</v>
+        <v>309.9102172851562</v>
       </c>
       <c r="FW2" t="n">
-        <v>394.9926452636719</v>
+        <v>297.2854309082031</v>
       </c>
       <c r="FX2" t="n">
-        <v>391.8624267578125</v>
+        <v>296.0935363769531</v>
       </c>
       <c r="FY2" t="n">
-        <v>388.8119201660156</v>
+        <v>289.5133666992188</v>
       </c>
       <c r="FZ2" t="n">
-        <v>391.79296875</v>
+        <v>284.5831909179688</v>
       </c>
       <c r="GA2" t="n">
-        <v>393.4209594726562</v>
+        <v>275.7071533203125</v>
       </c>
       <c r="GB2" t="n">
-        <v>394.1669311523438</v>
+        <v>273.3851318359375</v>
       </c>
       <c r="GC2" t="n">
-        <v>394.3293762207031</v>
+        <v>268.0025939941406</v>
       </c>
       <c r="GD2" t="n">
-        <v>394.1560668945312</v>
+        <v>268.9545593261719</v>
       </c>
       <c r="GE2" t="n">
-        <v>395.2001342773438</v>
+        <v>278.6421508789062</v>
       </c>
       <c r="GF2" t="n">
-        <v>397.6939086914062</v>
+        <v>295.6693420410156</v>
       </c>
       <c r="GG2" t="n">
-        <v>400.5474243164062</v>
+        <v>294.990234375</v>
       </c>
       <c r="GH2" t="n">
-        <v>403.6483154296875</v>
+        <v>281.7810668945312</v>
       </c>
       <c r="GI2" t="n">
-        <v>402.1110534667969</v>
+        <v>263.6936950683594</v>
       </c>
       <c r="GJ2" t="n">
-        <v>366.003173828125</v>
+        <v>259.271728515625</v>
       </c>
       <c r="GK2" t="n">
-        <v>363.6738586425781</v>
+        <v>258.8747253417969</v>
       </c>
       <c r="GL2" t="n">
-        <v>359.0513305664062</v>
+        <v>256.2346801757812</v>
       </c>
       <c r="GM2" t="n">
-        <v>355.3030395507812</v>
+        <v>251.7011260986328</v>
       </c>
       <c r="GN2" t="n">
-        <v>352.9891662597656</v>
+        <v>250.0335998535156</v>
       </c>
       <c r="GO2" t="n">
-        <v>349.5485229492188</v>
+        <v>247.6355590820312</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.3164367675781</v>
+        <v>243.3467864990234</v>
       </c>
       <c r="GQ2" t="n">
-        <v>338.1708068847656</v>
+        <v>241.3878173828125</v>
       </c>
       <c r="GR2" t="n">
-        <v>335.3969116210938</v>
+        <v>238.8424987792969</v>
       </c>
       <c r="GS2" t="n">
-        <v>333.3132934570312</v>
+        <v>234.5357513427734</v>
       </c>
       <c r="GT2" t="n">
-        <v>330.9258422851562</v>
+        <v>227.8233489990234</v>
       </c>
       <c r="GU2" t="n">
-        <v>325.4055480957031</v>
+        <v>215.1744995117188</v>
       </c>
       <c r="GV2" t="n">
-        <v>322.8121337890625</v>
+        <v>208.0052795410156</v>
       </c>
       <c r="GW2" t="n">
-        <v>321.592529296875</v>
+        <v>199.5298461914062</v>
       </c>
       <c r="GX2" t="n">
-        <v>321.0260009765625</v>
+        <v>188.62158203125</v>
       </c>
       <c r="GY2" t="n">
-        <v>319.354736328125</v>
+        <v>180.0010375976562</v>
       </c>
       <c r="GZ2" t="n">
-        <v>355.6829833984375</v>
+        <v>163.8578643798828</v>
       </c>
       <c r="HA2" t="n">
-        <v>354.8748168945312</v>
+        <v>118.0478591918945</v>
       </c>
       <c r="HB2" t="n">
-        <v>354.2005004882812</v>
+        <v>88.25738525390625</v>
       </c>
       <c r="HC2" t="n">
-        <v>355.0977783203125</v>
+        <v>75.40170288085938</v>
       </c>
       <c r="HD2" t="n">
-        <v>356.0184326171875</v>
+        <v>65.20317840576172</v>
       </c>
       <c r="HE2" t="n">
-        <v>352.4422607421875</v>
+        <v>50.04409027099609</v>
       </c>
       <c r="HF2" t="n">
-        <v>353.76513671875</v>
+        <v>50.41985321044922</v>
       </c>
       <c r="HG2" t="n">
-        <v>353.0780639648438</v>
+        <v>54.64271926879883</v>
       </c>
       <c r="HH2" t="n">
-        <v>353.4716796875</v>
+        <v>55.77235794067383</v>
       </c>
       <c r="HI2" t="n">
-        <v>352.4647216796875</v>
+        <v>60.76683044433594</v>
       </c>
       <c r="HJ2" t="n">
-        <v>350.9094848632812</v>
+        <v>64.04096984863281</v>
       </c>
       <c r="HK2" t="n">
-        <v>348.3944091796875</v>
+        <v>69.93166351318359</v>
       </c>
       <c r="HL2" t="n">
-        <v>349.1814880371094</v>
+        <v>77.65167236328125</v>
       </c>
       <c r="HM2" t="n">
-        <v>354.5328369140625</v>
+        <v>78.74925994873047</v>
       </c>
       <c r="HN2" t="n">
-        <v>350.3729858398438</v>
+        <v>81.14848327636719</v>
       </c>
       <c r="HO2" t="n">
-        <v>338.7423095703125</v>
+        <v>108.2117767333984</v>
       </c>
       <c r="HP2" t="n">
-        <v>416.847900390625</v>
+        <v>137.2765655517578</v>
       </c>
       <c r="HQ2" t="n">
-        <v>410.3092041015625</v>
+        <v>160.5306396484375</v>
       </c>
       <c r="HR2" t="n">
-        <v>418.5326538085938</v>
+        <v>136.8837738037109</v>
       </c>
       <c r="HS2" t="n">
-        <v>415.7783813476562</v>
+        <v>134.5758819580078</v>
       </c>
       <c r="HT2" t="n">
-        <v>408.8812866210938</v>
+        <v>110.4890365600586</v>
       </c>
       <c r="HU2" t="n">
-        <v>408.3660583496094</v>
+        <v>150.3397369384766</v>
       </c>
       <c r="HV2" t="n">
-        <v>417.6949462890625</v>
+        <v>204.7041625976562</v>
       </c>
       <c r="HW2" t="n">
-        <v>407.4916076660156</v>
+        <v>169.2620697021484</v>
       </c>
       <c r="HX2" t="n">
-        <v>418.8533935546875</v>
+        <v>309.5044250488281</v>
       </c>
       <c r="HY2" t="n">
-        <v>411.1147766113281</v>
+        <v>303.3634643554688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>385.6796264648438</v>
+        <v>293.2593994140625</v>
       </c>
       <c r="IA2" t="n">
-        <v>396.23583984375</v>
+        <v>253.3549346923828</v>
       </c>
       <c r="IB2" t="n">
-        <v>397.4853210449219</v>
+        <v>262.6295776367188</v>
       </c>
       <c r="IC2" t="n">
-        <v>407.6644897460938</v>
+        <v>304.7043762207031</v>
       </c>
       <c r="ID2" t="n">
-        <v>408.6006469726562</v>
+        <v>297.9968872070312</v>
       </c>
       <c r="IE2" t="n">
-        <v>410.5529174804688</v>
+        <v>271.6614990234375</v>
       </c>
       <c r="IF2" t="n">
-        <v>411.400390625</v>
+        <v>275.5352478027344</v>
       </c>
       <c r="IG2" t="n">
-        <v>390.92431640625</v>
+        <v>270.5892639160156</v>
       </c>
       <c r="IH2" t="n">
-        <v>409.619384765625</v>
+        <v>271.1304626464844</v>
       </c>
       <c r="II2" t="n">
-        <v>408.6292114257812</v>
+        <v>254.2726898193359</v>
       </c>
       <c r="IJ2" t="n">
-        <v>405.53857421875</v>
+        <v>253.2235412597656</v>
       </c>
       <c r="IK2" t="n">
-        <v>365.128173828125</v>
+        <v>268.9533081054688</v>
       </c>
       <c r="IL2" t="n">
-        <v>360.6661376953125</v>
+        <v>303.3117065429688</v>
       </c>
       <c r="IM2" t="n">
-        <v>352.8363647460938</v>
+        <v>250.1661987304688</v>
       </c>
       <c r="IN2" t="n">
-        <v>340.2651977539062</v>
+        <v>324.2981262207031</v>
       </c>
       <c r="IO2" t="n">
-        <v>341.5368957519531</v>
+        <v>322.2867431640625</v>
       </c>
       <c r="IP2" t="n">
-        <v>343.7665100097656</v>
+        <v>200.6494750976562</v>
       </c>
       <c r="IQ2" t="n">
-        <v>343.7063903808594</v>
+        <v>172.9947814941406</v>
       </c>
       <c r="IR2" t="n">
-        <v>346.7960205078125</v>
+        <v>194.1900329589844</v>
       </c>
       <c r="IS2" t="n">
-        <v>346.0615539550781</v>
+        <v>197.9732971191406</v>
       </c>
       <c r="IT2" t="n">
-        <v>344.94970703125</v>
+        <v>171.0858764648438</v>
       </c>
       <c r="IU2" t="n">
-        <v>345.4644165039062</v>
+        <v>229.3713073730469</v>
       </c>
       <c r="IV2" t="n">
-        <v>347.6051635742188</v>
+        <v>228.6912841796875</v>
       </c>
       <c r="IW2" t="n">
-        <v>347.6921997070312</v>
+        <v>144.7122497558594</v>
       </c>
       <c r="IX2" t="n">
-        <v>354.8900756835938</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>356.3515625</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>356.6658325195312</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>349.3150024414062</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>345.0071716308594</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>343.3733825683594</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>344.1248168945312</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>340.8127136230469</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>342.8644104003906</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>342.5390014648438</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>341.7544250488281</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>341.166748046875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>340.5799865722656</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>339.9791259765625</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>382.90869140625</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>416.5181884765625</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>413.2607727050781</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>380.87939453125</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>383.3544311523438</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>385.7564086914062</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>386.98681640625</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>389.3887939453125</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>391.4527587890625</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>392.4630126953125</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>392.76513671875</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>392.910400390625</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>392.9954223632812</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>393.0621032714844</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>393.1225891113281</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>393.2585144042969</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>391.95703125</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>390.0151977539062</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>388.7657470703125</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>387.8309936523438</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>387.4915161132812</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>387.4921875</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>387.6359252929688</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>387.8386840820312</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>388.0813293457031</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>388.2983093261719</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>388.4627075195312</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>388.4072265625</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>388.3437805175781</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>388.6680908203125</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>389.1784057617188</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>389.8519592285156</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>390.1655883789062</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>391.5227661132812</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>392.6908874511719</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>393.4093017578125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>393.1143188476562</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>393.1574096679688</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>393.1611633300781</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>394.0421142578125</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>395.7198791503906</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>399.0823974609375</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>401.9011840820312</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>412.0196533203125</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>420.0746459960938</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>421.898193359375</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>430.9388732910156</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>437.1052856445312</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>444.262451171875</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>448.9788208007812</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>453.6173095703125</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>458.90771484375</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>452.5335083007812</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>425.3210754394531</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>353.2330932617188</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>379.0648803710938</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>424.3871459960938</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>462.4285278320312</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>482.86767578125</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>447.31689453125</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>451.1623840332031</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>453.8689575195312</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>451.6170654296875</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>434.8385620117188</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>429.8465270996094</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>416.9219970703125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>394.8665161132812</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>369.37060546875</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>344.1002807617188</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>321.40869140625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>303.3062133789062</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>301.4769287109375</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>303.1114501953125</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>309.6549682617188</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>314.733154296875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>320.859619140625</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>327.0216064453125</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>337.1556091308594</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>344.2418823242188</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>365.7611694335938</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>363.3472900390625</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>366.4683837890625</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>369.8175354003906</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>367.5332641601562</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>346.3028259277344</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>375.2646484375</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>402.2289428710938</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>397.1625061035156</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>354.3610229492188</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>348.6256103515625</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>339.934326171875</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>307.4857177734375</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>327.0354919433594</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>323.8872680664062</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>280.7858276367188</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>265.8688659667969</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>272.0917358398438</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>274.9955139160156</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>275.6927490234375</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>277.1116027832031</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>277.1333312988281</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>279.3191528320312</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>281.8798828125</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>283.55224609375</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>282.9685668945312</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>286.5022888183594</v>
+        <v>143.7679138183594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>559.5035400390625</v>
+        <v>583.7595825195312</v>
       </c>
       <c r="B3" t="n">
-        <v>551.0612182617188</v>
+        <v>575.3909912109375</v>
       </c>
       <c r="C3" t="n">
-        <v>552.89306640625</v>
+        <v>576.0498046875</v>
       </c>
       <c r="D3" t="n">
-        <v>552.0269165039062</v>
+        <v>575.4170532226562</v>
       </c>
       <c r="E3" t="n">
-        <v>552.6859130859375</v>
+        <v>572.944580078125</v>
       </c>
       <c r="F3" t="n">
-        <v>549.0576171875</v>
+        <v>569.7359008789062</v>
       </c>
       <c r="G3" t="n">
-        <v>543.2818603515625</v>
+        <v>565.7067260742188</v>
       </c>
       <c r="H3" t="n">
-        <v>538.5213012695312</v>
+        <v>559.4879150390625</v>
       </c>
       <c r="I3" t="n">
-        <v>532.7669067382812</v>
+        <v>553.6969604492188</v>
       </c>
       <c r="J3" t="n">
-        <v>527.3355102539062</v>
+        <v>547.8187255859375</v>
       </c>
       <c r="K3" t="n">
-        <v>521.72216796875</v>
+        <v>541.5799560546875</v>
       </c>
       <c r="L3" t="n">
-        <v>515.7958984375</v>
+        <v>533.3329467773438</v>
       </c>
       <c r="M3" t="n">
-        <v>516.830810546875</v>
+        <v>526.3438110351562</v>
       </c>
       <c r="N3" t="n">
-        <v>502.6558837890625</v>
+        <v>519.8829956054688</v>
       </c>
       <c r="O3" t="n">
-        <v>501.0798950195312</v>
+        <v>531.5731201171875</v>
       </c>
       <c r="P3" t="n">
-        <v>494.6972351074219</v>
+        <v>526.1636352539062</v>
       </c>
       <c r="Q3" t="n">
-        <v>492.317626953125</v>
+        <v>522.3345336914062</v>
       </c>
       <c r="R3" t="n">
-        <v>491.467041015625</v>
+        <v>521.9378051757812</v>
       </c>
       <c r="S3" t="n">
-        <v>491.4800415039062</v>
+        <v>520.5497436523438</v>
       </c>
       <c r="T3" t="n">
-        <v>488.7878112792969</v>
+        <v>518.812744140625</v>
       </c>
       <c r="U3" t="n">
-        <v>486.5292053222656</v>
+        <v>516.8931884765625</v>
       </c>
       <c r="V3" t="n">
-        <v>484.8160095214844</v>
+        <v>516.4926147460938</v>
       </c>
       <c r="W3" t="n">
-        <v>483.282958984375</v>
+        <v>515.9938354492188</v>
       </c>
       <c r="X3" t="n">
-        <v>482.6346130371094</v>
+        <v>512.7576293945312</v>
       </c>
       <c r="Y3" t="n">
-        <v>490.6553039550781</v>
+        <v>510.1944274902344</v>
       </c>
       <c r="Z3" t="n">
-        <v>499.3495483398438</v>
+        <v>504.2024841308594</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.7323608398438</v>
+        <v>503.0325622558594</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.6398010253906</v>
+        <v>504.2637023925781</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.2068176269531</v>
+        <v>503.0057067871094</v>
       </c>
       <c r="AD3" t="n">
-        <v>497.6535949707031</v>
+        <v>501.4409790039062</v>
       </c>
       <c r="AE3" t="n">
-        <v>524.521728515625</v>
+        <v>497.3784790039062</v>
       </c>
       <c r="AF3" t="n">
-        <v>518.6129150390625</v>
+        <v>495.85400390625</v>
       </c>
       <c r="AG3" t="n">
-        <v>516.5739135742188</v>
+        <v>493.4638061523438</v>
       </c>
       <c r="AH3" t="n">
-        <v>499.9763488769531</v>
+        <v>490.9746704101562</v>
       </c>
       <c r="AI3" t="n">
-        <v>504.9561157226562</v>
+        <v>488.1029357910156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>501.509521484375</v>
+        <v>489.1568603515625</v>
       </c>
       <c r="AK3" t="n">
-        <v>507.6769714355469</v>
+        <v>489.8449096679688</v>
       </c>
       <c r="AL3" t="n">
-        <v>511.3106384277344</v>
+        <v>489.873291015625</v>
       </c>
       <c r="AM3" t="n">
-        <v>517.2994995117188</v>
+        <v>490.5424194335938</v>
       </c>
       <c r="AN3" t="n">
-        <v>517.8388671875</v>
+        <v>492.2636108398438</v>
       </c>
       <c r="AO3" t="n">
-        <v>518.8033447265625</v>
+        <v>492.7633666992188</v>
       </c>
       <c r="AP3" t="n">
-        <v>518.8385620117188</v>
+        <v>492.5870056152344</v>
       </c>
       <c r="AQ3" t="n">
-        <v>524.3673706054688</v>
+        <v>492.0351257324219</v>
       </c>
       <c r="AR3" t="n">
-        <v>528.3331298828125</v>
+        <v>492.02978515625</v>
       </c>
       <c r="AS3" t="n">
-        <v>528.6116943359375</v>
+        <v>492.8893737792969</v>
       </c>
       <c r="AT3" t="n">
-        <v>528.7696533203125</v>
+        <v>492.461181640625</v>
       </c>
       <c r="AU3" t="n">
-        <v>520.5885620117188</v>
+        <v>491.42236328125</v>
       </c>
       <c r="AV3" t="n">
-        <v>523.7137451171875</v>
+        <v>491.3222045898438</v>
       </c>
       <c r="AW3" t="n">
-        <v>529.6052856445312</v>
+        <v>491.3009948730469</v>
       </c>
       <c r="AX3" t="n">
-        <v>530.3565673828125</v>
+        <v>490.5234069824219</v>
       </c>
       <c r="AY3" t="n">
-        <v>533.0758666992188</v>
+        <v>490.136474609375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>536.097900390625</v>
+        <v>489.4251098632812</v>
       </c>
       <c r="BA3" t="n">
-        <v>538.9144287109375</v>
+        <v>489.5307006835938</v>
       </c>
       <c r="BB3" t="n">
-        <v>539.2501220703125</v>
+        <v>488.969482421875</v>
       </c>
       <c r="BC3" t="n">
-        <v>539.9420776367188</v>
+        <v>488.2456970214844</v>
       </c>
       <c r="BD3" t="n">
-        <v>535.2494506835938</v>
+        <v>487.9300537109375</v>
       </c>
       <c r="BE3" t="n">
-        <v>529.2059936523438</v>
+        <v>487.6636352539062</v>
       </c>
       <c r="BF3" t="n">
-        <v>521.6528930664062</v>
+        <v>487.5185852050781</v>
       </c>
       <c r="BG3" t="n">
-        <v>519.7144775390625</v>
+        <v>487.2958984375</v>
       </c>
       <c r="BH3" t="n">
-        <v>516.2290649414062</v>
+        <v>486.6803588867188</v>
       </c>
       <c r="BI3" t="n">
-        <v>512.5556640625</v>
+        <v>486.5169677734375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>511.8805541992188</v>
+        <v>485.6295166015625</v>
       </c>
       <c r="BK3" t="n">
-        <v>514.2914428710938</v>
+        <v>485.507080078125</v>
       </c>
       <c r="BL3" t="n">
-        <v>519.66455078125</v>
+        <v>485.6953125</v>
       </c>
       <c r="BM3" t="n">
-        <v>523.1295776367188</v>
+        <v>485.5263061523438</v>
       </c>
       <c r="BN3" t="n">
-        <v>524.9241333007812</v>
+        <v>485.5046691894531</v>
       </c>
       <c r="BO3" t="n">
-        <v>527.0883178710938</v>
+        <v>484.5948486328125</v>
       </c>
       <c r="BP3" t="n">
-        <v>526.7666625976562</v>
+        <v>484.10888671875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>529.2837524414062</v>
+        <v>484.1821899414062</v>
       </c>
       <c r="BR3" t="n">
-        <v>530.9750366210938</v>
+        <v>483.9718933105469</v>
       </c>
       <c r="BS3" t="n">
-        <v>532.5173950195312</v>
+        <v>483.9219970703125</v>
       </c>
       <c r="BT3" t="n">
-        <v>533.8412475585938</v>
+        <v>485.017822265625</v>
       </c>
       <c r="BU3" t="n">
-        <v>537.05322265625</v>
+        <v>484.9533386230469</v>
       </c>
       <c r="BV3" t="n">
-        <v>538.323486328125</v>
+        <v>485.0795288085938</v>
       </c>
       <c r="BW3" t="n">
-        <v>538.896484375</v>
+        <v>485.3272094726562</v>
       </c>
       <c r="BX3" t="n">
-        <v>539.2980346679688</v>
+        <v>485.625</v>
       </c>
       <c r="BY3" t="n">
-        <v>539.0782470703125</v>
+        <v>485.9262084960938</v>
       </c>
       <c r="BZ3" t="n">
-        <v>539.4240112304688</v>
+        <v>486.4536743164062</v>
       </c>
       <c r="CA3" t="n">
-        <v>538.0601196289062</v>
+        <v>486.8424682617188</v>
       </c>
       <c r="CB3" t="n">
-        <v>538.7982177734375</v>
+        <v>486.9880981445312</v>
       </c>
       <c r="CC3" t="n">
-        <v>540.16064453125</v>
+        <v>487.1480407714844</v>
       </c>
       <c r="CD3" t="n">
-        <v>541.0458374023438</v>
+        <v>487.2799377441406</v>
       </c>
       <c r="CE3" t="n">
-        <v>541.8709106445312</v>
+        <v>487.1265869140625</v>
       </c>
       <c r="CF3" t="n">
-        <v>542.3772583007812</v>
+        <v>487.2328491210938</v>
       </c>
       <c r="CG3" t="n">
-        <v>542.522216796875</v>
+        <v>487.3070678710938</v>
       </c>
       <c r="CH3" t="n">
-        <v>544.4456176757812</v>
+        <v>487.0781860351562</v>
       </c>
       <c r="CI3" t="n">
-        <v>544.5527954101562</v>
+        <v>486.6452331542969</v>
       </c>
       <c r="CJ3" t="n">
-        <v>513.16845703125</v>
+        <v>486.6207580566406</v>
       </c>
       <c r="CK3" t="n">
-        <v>513.8135375976562</v>
+        <v>486.5597534179688</v>
       </c>
       <c r="CL3" t="n">
-        <v>514.583740234375</v>
+        <v>486.4893188476562</v>
       </c>
       <c r="CM3" t="n">
-        <v>515.3909912109375</v>
+        <v>486.4236145019531</v>
       </c>
       <c r="CN3" t="n">
-        <v>516.203857421875</v>
+        <v>486.3450012207031</v>
       </c>
       <c r="CO3" t="n">
-        <v>516.6028442382812</v>
+        <v>486.2867431640625</v>
       </c>
       <c r="CP3" t="n">
-        <v>516.8456420898438</v>
+        <v>486.2129516601562</v>
       </c>
       <c r="CQ3" t="n">
-        <v>517.0252075195312</v>
+        <v>486.1610412597656</v>
       </c>
       <c r="CR3" t="n">
-        <v>516.9779052734375</v>
+        <v>486.1176147460938</v>
       </c>
       <c r="CS3" t="n">
-        <v>517.4911499023438</v>
+        <v>486.0582275390625</v>
       </c>
       <c r="CT3" t="n">
-        <v>518.3261108398438</v>
+        <v>485.9593505859375</v>
       </c>
       <c r="CU3" t="n">
-        <v>518.842529296875</v>
+        <v>485.8124084472656</v>
       </c>
       <c r="CV3" t="n">
-        <v>519.0051879882812</v>
+        <v>485.6734008789062</v>
       </c>
       <c r="CW3" t="n">
-        <v>519.1160278320312</v>
+        <v>485.5232543945312</v>
       </c>
       <c r="CX3" t="n">
-        <v>519.2450561523438</v>
+        <v>485.3722534179688</v>
       </c>
       <c r="CY3" t="n">
-        <v>518.6396484375</v>
+        <v>485.2066650390625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>516.5477294921875</v>
+        <v>484.9922485351562</v>
       </c>
       <c r="DA3" t="n">
-        <v>514.1432495117188</v>
+        <v>484.7723083496094</v>
       </c>
       <c r="DB3" t="n">
-        <v>513.3546142578125</v>
+        <v>484.5943908691406</v>
       </c>
       <c r="DC3" t="n">
-        <v>512.2755126953125</v>
+        <v>484.3940124511719</v>
       </c>
       <c r="DD3" t="n">
-        <v>511.9892578125</v>
+        <v>484.1841430664062</v>
       </c>
       <c r="DE3" t="n">
-        <v>511.7576904296875</v>
+        <v>484.466064453125</v>
       </c>
       <c r="DF3" t="n">
-        <v>511.9356689453125</v>
+        <v>484.7749938964844</v>
       </c>
       <c r="DG3" t="n">
-        <v>512.155517578125</v>
+        <v>485.3818054199219</v>
       </c>
       <c r="DH3" t="n">
-        <v>512.0537109375</v>
+        <v>485.7815551757812</v>
       </c>
       <c r="DI3" t="n">
-        <v>537.8927612304688</v>
+        <v>486.3241271972656</v>
       </c>
       <c r="DJ3" t="n">
-        <v>532.786865234375</v>
+        <v>487.0680541992188</v>
       </c>
       <c r="DK3" t="n">
-        <v>529.9644165039062</v>
+        <v>487.7726440429688</v>
       </c>
       <c r="DL3" t="n">
-        <v>530.444580078125</v>
+        <v>487.7273254394531</v>
       </c>
       <c r="DM3" t="n">
-        <v>531.833984375</v>
+        <v>487.6572265625</v>
       </c>
       <c r="DN3" t="n">
-        <v>531.7531127929688</v>
+        <v>488.0355224609375</v>
       </c>
       <c r="DO3" t="n">
-        <v>533.728515625</v>
+        <v>485.711181640625</v>
       </c>
       <c r="DP3" t="n">
-        <v>534.1937866210938</v>
+        <v>485.3460083007812</v>
       </c>
       <c r="DQ3" t="n">
-        <v>533.1422729492188</v>
+        <v>485.7552795410156</v>
       </c>
       <c r="DR3" t="n">
-        <v>532.3091430664062</v>
+        <v>485.9156188964844</v>
       </c>
       <c r="DS3" t="n">
-        <v>531.77783203125</v>
+        <v>486.0183410644531</v>
       </c>
       <c r="DT3" t="n">
-        <v>531.4824829101562</v>
+        <v>486.1684875488281</v>
       </c>
       <c r="DU3" t="n">
-        <v>533.3320922851562</v>
+        <v>486.0876159667969</v>
       </c>
       <c r="DV3" t="n">
-        <v>533.47607421875</v>
+        <v>485.6285400390625</v>
       </c>
       <c r="DW3" t="n">
-        <v>531.1410522460938</v>
+        <v>484.9871215820312</v>
       </c>
       <c r="DX3" t="n">
-        <v>530.4513549804688</v>
+        <v>485.2202758789062</v>
       </c>
       <c r="DY3" t="n">
-        <v>529.2500610351562</v>
+        <v>486.07080078125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>527.441650390625</v>
+        <v>487.1486206054688</v>
       </c>
       <c r="EA3" t="n">
-        <v>527.53173828125</v>
+        <v>488.5594482421875</v>
       </c>
       <c r="EB3" t="n">
-        <v>527.061767578125</v>
+        <v>489.52783203125</v>
       </c>
       <c r="EC3" t="n">
-        <v>531.6338500976562</v>
+        <v>489.7308044433594</v>
       </c>
       <c r="ED3" t="n">
-        <v>533.3968505859375</v>
+        <v>487.7364807128906</v>
       </c>
       <c r="EE3" t="n">
-        <v>532.3680419921875</v>
+        <v>487.0710144042969</v>
       </c>
       <c r="EF3" t="n">
-        <v>532.5332641601562</v>
+        <v>485.0123291015625</v>
       </c>
       <c r="EG3" t="n">
-        <v>521.7258911132812</v>
+        <v>483.0903625488281</v>
       </c>
       <c r="EH3" t="n">
-        <v>518.9639282226562</v>
+        <v>481.4390869140625</v>
       </c>
       <c r="EI3" t="n">
-        <v>515.3534545898438</v>
+        <v>481.5950317382812</v>
       </c>
       <c r="EJ3" t="n">
-        <v>512.6608276367188</v>
+        <v>482.5851135253906</v>
       </c>
       <c r="EK3" t="n">
-        <v>503.1318969726562</v>
+        <v>485.1172180175781</v>
       </c>
       <c r="EL3" t="n">
-        <v>500.7111206054688</v>
+        <v>486.1404418945312</v>
       </c>
       <c r="EM3" t="n">
-        <v>498.2179565429688</v>
+        <v>487.8423461914062</v>
       </c>
       <c r="EN3" t="n">
-        <v>494.4452514648438</v>
+        <v>488.4380187988281</v>
       </c>
       <c r="EO3" t="n">
-        <v>496.3314514160156</v>
+        <v>488.7134704589844</v>
       </c>
       <c r="EP3" t="n">
-        <v>487.0549926757812</v>
+        <v>488.6910400390625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>485.345947265625</v>
+        <v>489.1016540527344</v>
       </c>
       <c r="ER3" t="n">
-        <v>482.7055053710938</v>
+        <v>485.2908935546875</v>
       </c>
       <c r="ES3" t="n">
-        <v>482.2711791992188</v>
+        <v>483.5735473632812</v>
       </c>
       <c r="ET3" t="n">
-        <v>488.8688354492188</v>
+        <v>483.1553649902344</v>
       </c>
       <c r="EU3" t="n">
-        <v>485.4610595703125</v>
+        <v>483.3912353515625</v>
       </c>
       <c r="EV3" t="n">
-        <v>477.2088928222656</v>
+        <v>482.5339965820312</v>
       </c>
       <c r="EW3" t="n">
-        <v>469.4447326660156</v>
+        <v>482.739990234375</v>
       </c>
       <c r="EX3" t="n">
-        <v>465.7933959960938</v>
+        <v>483.4129638671875</v>
       </c>
       <c r="EY3" t="n">
-        <v>460.1749877929688</v>
+        <v>485.7644958496094</v>
       </c>
       <c r="EZ3" t="n">
-        <v>457.0409851074219</v>
+        <v>491.6441955566406</v>
       </c>
       <c r="FA3" t="n">
-        <v>454.8284301757812</v>
+        <v>495.864501953125</v>
       </c>
       <c r="FB3" t="n">
-        <v>459.6672058105469</v>
+        <v>497.5908813476562</v>
       </c>
       <c r="FC3" t="n">
-        <v>460.6893920898438</v>
+        <v>499.4470520019531</v>
       </c>
       <c r="FD3" t="n">
-        <v>458.7232360839844</v>
+        <v>502.1814575195312</v>
       </c>
       <c r="FE3" t="n">
-        <v>457.6287841796875</v>
+        <v>503.4094543457031</v>
       </c>
       <c r="FF3" t="n">
-        <v>455.3770141601562</v>
+        <v>506.6314392089844</v>
       </c>
       <c r="FG3" t="n">
-        <v>453.5078735351562</v>
+        <v>504.5953674316406</v>
       </c>
       <c r="FH3" t="n">
-        <v>453.8913269042969</v>
+        <v>503.2165222167969</v>
       </c>
       <c r="FI3" t="n">
-        <v>451.6361694335938</v>
+        <v>504.6573791503906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>450.4581909179688</v>
+        <v>511.2952880859375</v>
       </c>
       <c r="FK3" t="n">
-        <v>454.5286254882812</v>
+        <v>516.3156127929688</v>
       </c>
       <c r="FL3" t="n">
-        <v>451.9591979980469</v>
+        <v>516.1587524414062</v>
       </c>
       <c r="FM3" t="n">
-        <v>446.5625</v>
+        <v>517.3267822265625</v>
       </c>
       <c r="FN3" t="n">
-        <v>444.7215881347656</v>
+        <v>517.4046630859375</v>
       </c>
       <c r="FO3" t="n">
-        <v>445.0443115234375</v>
+        <v>521.9351806640625</v>
       </c>
       <c r="FP3" t="n">
-        <v>445.1498413085938</v>
+        <v>524.7662963867188</v>
       </c>
       <c r="FQ3" t="n">
-        <v>449.2918395996094</v>
+        <v>526.7763671875</v>
       </c>
       <c r="FR3" t="n">
-        <v>448.6837463378906</v>
+        <v>530.2630004882812</v>
       </c>
       <c r="FS3" t="n">
-        <v>447.0115356445312</v>
+        <v>529.3069458007812</v>
       </c>
       <c r="FT3" t="n">
-        <v>443.8811950683594</v>
+        <v>533.2498779296875</v>
       </c>
       <c r="FU3" t="n">
-        <v>444.5099792480469</v>
+        <v>538.306884765625</v>
       </c>
       <c r="FV3" t="n">
-        <v>446.6387634277344</v>
+        <v>544.5353393554688</v>
       </c>
       <c r="FW3" t="n">
-        <v>447.6001892089844</v>
+        <v>544.3602905273438</v>
       </c>
       <c r="FX3" t="n">
-        <v>446.6981811523438</v>
+        <v>547.1683349609375</v>
       </c>
       <c r="FY3" t="n">
-        <v>445.5108032226562</v>
+        <v>546.28955078125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>445.38134765625</v>
+        <v>550.5020751953125</v>
       </c>
       <c r="GA3" t="n">
-        <v>445.6920166015625</v>
+        <v>560.7030029296875</v>
       </c>
       <c r="GB3" t="n">
-        <v>443.8790283203125</v>
+        <v>563.870849609375</v>
       </c>
       <c r="GC3" t="n">
-        <v>443.5333862304688</v>
+        <v>571.1694946289062</v>
       </c>
       <c r="GD3" t="n">
-        <v>442.7222290039062</v>
+        <v>575.4382934570312</v>
       </c>
       <c r="GE3" t="n">
-        <v>441.033203125</v>
+        <v>576.8370971679688</v>
       </c>
       <c r="GF3" t="n">
-        <v>436.5806579589844</v>
+        <v>577.0165405273438</v>
       </c>
       <c r="GG3" t="n">
-        <v>434.4568176269531</v>
+        <v>576.5987548828125</v>
       </c>
       <c r="GH3" t="n">
-        <v>431.0365905761719</v>
+        <v>587.01171875</v>
       </c>
       <c r="GI3" t="n">
-        <v>430.5484619140625</v>
+        <v>599.5552978515625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>430.3523864746094</v>
+        <v>603.7200927734375</v>
       </c>
       <c r="GK3" t="n">
-        <v>429.9093627929688</v>
+        <v>569.7945556640625</v>
       </c>
       <c r="GL3" t="n">
-        <v>429.8118896484375</v>
+        <v>581.03369140625</v>
       </c>
       <c r="GM3" t="n">
-        <v>429.7276306152344</v>
+        <v>594.2525024414062</v>
       </c>
       <c r="GN3" t="n">
-        <v>429.7221984863281</v>
+        <v>600.9703369140625</v>
       </c>
       <c r="GO3" t="n">
-        <v>430.6019287109375</v>
+        <v>613.632568359375</v>
       </c>
       <c r="GP3" t="n">
-        <v>430.1938781738281</v>
+        <v>612.8554077148438</v>
       </c>
       <c r="GQ3" t="n">
-        <v>430.2879028320312</v>
+        <v>610.9719848632812</v>
       </c>
       <c r="GR3" t="n">
-        <v>428.5576782226562</v>
+        <v>617.3230590820312</v>
       </c>
       <c r="GS3" t="n">
-        <v>427.0776062011719</v>
+        <v>619.6795654296875</v>
       </c>
       <c r="GT3" t="n">
-        <v>425.3767700195312</v>
+        <v>621.6563110351562</v>
       </c>
       <c r="GU3" t="n">
-        <v>424.4066772460938</v>
+        <v>616.808349609375</v>
       </c>
       <c r="GV3" t="n">
-        <v>425.2737426757812</v>
+        <v>614.5519409179688</v>
       </c>
       <c r="GW3" t="n">
-        <v>426.2057495117188</v>
+        <v>608.9525756835938</v>
       </c>
       <c r="GX3" t="n">
-        <v>424.5849304199219</v>
+        <v>609.7091674804688</v>
       </c>
       <c r="GY3" t="n">
-        <v>420.709228515625</v>
+        <v>610.6126098632812</v>
       </c>
       <c r="GZ3" t="n">
-        <v>418.072998046875</v>
+        <v>615.772216796875</v>
       </c>
       <c r="HA3" t="n">
-        <v>417.3370361328125</v>
+        <v>648.216552734375</v>
       </c>
       <c r="HB3" t="n">
-        <v>415.2409362792969</v>
+        <v>660.9977416992188</v>
       </c>
       <c r="HC3" t="n">
-        <v>412.104248046875</v>
+        <v>659.6824340820312</v>
       </c>
       <c r="HD3" t="n">
-        <v>409.3779296875</v>
+        <v>664.8281860351562</v>
       </c>
       <c r="HE3" t="n">
-        <v>410.6268920898438</v>
+        <v>671.7325439453125</v>
       </c>
       <c r="HF3" t="n">
-        <v>410.2603149414062</v>
+        <v>663.9973754882812</v>
       </c>
       <c r="HG3" t="n">
-        <v>411.3815307617188</v>
+        <v>650.6707153320312</v>
       </c>
       <c r="HH3" t="n">
-        <v>414.8382263183594</v>
+        <v>657.3942260742188</v>
       </c>
       <c r="HI3" t="n">
-        <v>416.3928833007812</v>
+        <v>682.1426391601562</v>
       </c>
       <c r="HJ3" t="n">
-        <v>423.3377075195312</v>
+        <v>692.1260375976562</v>
       </c>
       <c r="HK3" t="n">
-        <v>430.1003723144531</v>
+        <v>698.4234008789062</v>
       </c>
       <c r="HL3" t="n">
-        <v>435.3835754394531</v>
+        <v>706.294921875</v>
       </c>
       <c r="HM3" t="n">
-        <v>438.2106323242188</v>
+        <v>705.7102661132812</v>
       </c>
       <c r="HN3" t="n">
-        <v>443.9878234863281</v>
+        <v>710.230712890625</v>
       </c>
       <c r="HO3" t="n">
-        <v>440.8973693847656</v>
+        <v>709.0401611328125</v>
       </c>
       <c r="HP3" t="n">
-        <v>435.4945983886719</v>
+        <v>716.4744873046875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>439.0172119140625</v>
+        <v>742.596435546875</v>
       </c>
       <c r="HR3" t="n">
-        <v>438.5702209472656</v>
+        <v>759.1197509765625</v>
       </c>
       <c r="HS3" t="n">
-        <v>440.5161743164062</v>
+        <v>782.7725219726562</v>
       </c>
       <c r="HT3" t="n">
-        <v>442.390380859375</v>
+        <v>864.645751953125</v>
       </c>
       <c r="HU3" t="n">
-        <v>444.5917358398438</v>
+        <v>845.213134765625</v>
       </c>
       <c r="HV3" t="n">
-        <v>445.0496215820312</v>
+        <v>850.84814453125</v>
       </c>
       <c r="HW3" t="n">
-        <v>445.23046875</v>
+        <v>858.0267944335938</v>
       </c>
       <c r="HX3" t="n">
-        <v>444.1015625</v>
+        <v>750.4781494140625</v>
       </c>
       <c r="HY3" t="n">
-        <v>443.6044006347656</v>
+        <v>810.6115112304688</v>
       </c>
       <c r="HZ3" t="n">
-        <v>435.4762268066406</v>
+        <v>856.9117431640625</v>
       </c>
       <c r="IA3" t="n">
-        <v>437.0879821777344</v>
+        <v>819.8689575195312</v>
       </c>
       <c r="IB3" t="n">
-        <v>441.001708984375</v>
+        <v>809.1644287109375</v>
       </c>
       <c r="IC3" t="n">
-        <v>447.2531127929688</v>
+        <v>727.5130615234375</v>
       </c>
       <c r="ID3" t="n">
-        <v>447.2114562988281</v>
+        <v>743.5174560546875</v>
       </c>
       <c r="IE3" t="n">
-        <v>445.2434692382812</v>
+        <v>758.3857421875</v>
       </c>
       <c r="IF3" t="n">
-        <v>443.5869445800781</v>
+        <v>750.459228515625</v>
       </c>
       <c r="IG3" t="n">
-        <v>442.57861328125</v>
+        <v>750.4765625</v>
       </c>
       <c r="IH3" t="n">
-        <v>444.7867126464844</v>
+        <v>762.4601440429688</v>
       </c>
       <c r="II3" t="n">
-        <v>444.3978576660156</v>
+        <v>743.6189575195312</v>
       </c>
       <c r="IJ3" t="n">
-        <v>441.9718933105469</v>
+        <v>705.5588989257812</v>
       </c>
       <c r="IK3" t="n">
-        <v>434.4590454101562</v>
+        <v>841.4255981445312</v>
       </c>
       <c r="IL3" t="n">
-        <v>434.9127197265625</v>
+        <v>875.2002563476562</v>
       </c>
       <c r="IM3" t="n">
-        <v>437.5903015136719</v>
+        <v>867.6018676757812</v>
       </c>
       <c r="IN3" t="n">
-        <v>441.6313171386719</v>
+        <v>791.7152709960938</v>
       </c>
       <c r="IO3" t="n">
-        <v>442.4642028808594</v>
+        <v>806.2034301757812</v>
       </c>
       <c r="IP3" t="n">
-        <v>441.0995788574219</v>
+        <v>929.547607421875</v>
       </c>
       <c r="IQ3" t="n">
-        <v>439.363525390625</v>
+        <v>959.2254028320312</v>
       </c>
       <c r="IR3" t="n">
-        <v>440.202880859375</v>
+        <v>831.08935546875</v>
       </c>
       <c r="IS3" t="n">
-        <v>440.8312377929688</v>
+        <v>837.9353637695312</v>
       </c>
       <c r="IT3" t="n">
-        <v>442.9781494140625</v>
+        <v>900.651123046875</v>
       </c>
       <c r="IU3" t="n">
-        <v>443.7398376464844</v>
+        <v>908.059814453125</v>
       </c>
       <c r="IV3" t="n">
-        <v>439.82470703125</v>
+        <v>908.057373046875</v>
       </c>
       <c r="IW3" t="n">
-        <v>439.4116821289062</v>
+        <v>983.1934204101562</v>
       </c>
       <c r="IX3" t="n">
-        <v>434.4610900878906</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>430.8207702636719</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>430.9197998046875</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>439.4189758300781</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>440.5478210449219</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>441.5536499023438</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>444.2905578613281</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>443.23681640625</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>445.376953125</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>444.1495666503906</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>444.709228515625</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>443.5889587402344</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>442.2807312011719</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>440.3185729980469</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>446.1025085449219</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>438.4520263671875</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>439.8911743164062</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>437.9202575683594</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>438.2044677734375</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>438.0203857421875</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>438.2099609375</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>438.8242797851562</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>438.8404541015625</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>438.63818359375</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>438.7035827636719</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>439.0484313964844</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>439.5023803710938</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>439.8417358398438</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>439.9042053222656</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>439.9435424804688</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>440.3327941894531</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>440.6575317382812</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>439.5473327636719</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>438.5953063964844</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>438.7877807617188</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>440.7681274414062</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>439.9058532714844</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>440.3518371582031</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>442.0080871582031</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>441.8535766601562</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>440.9455261230469</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>440.5033264160156</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>439.717529296875</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>438.8772583007812</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>439.2117309570312</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>439.8263244628906</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>438.2348937988281</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>436.9040222167969</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>437.73583984375</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>437.0559692382812</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>436.315185546875</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>436.4625244140625</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>436.6197204589844</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>436.6983337402344</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>437.8018798828125</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>445.2936096191406</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>444.9068908691406</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>449.7204895019531</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>448.5148620605469</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>450.9268188476562</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>456.2730102539062</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>463.4508666992188</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>472.9031372070312</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>484.758056640625</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>494.2947998046875</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>495.6916809082031</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>507.3846740722656</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>510.2282409667969</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>454.6300964355469</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>486.1993103027344</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>508.3368835449219</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>518.172119140625</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>533.8099365234375</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>522.2871704101562</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>535.2235717773438</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>545.5202026367188</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>567.8029174804688</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>570.3971557617188</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>583.9168090820312</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>596.0022583007812</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>616.0169677734375</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>642.0971069335938</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>649.171630859375</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>647.2120361328125</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>613.2968139648438</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>584.8822631835938</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>575.9586181640625</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>585.10986328125</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>588.731201171875</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>590.2666015625</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>601.1858520507812</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>632.6693725585938</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>651.4435424804688</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>676.4210815429688</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>683.723388671875</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>672.7752685546875</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>666.29150390625</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>666.0967407226562</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>689.4431762695312</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>781.9232788085938</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>853.659912109375</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>824.6981811523438</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>855.6631469726562</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>867.1701049804688</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>861.1240844726562</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>822.6643676757812</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>800.2252807617188</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>823.2139892578125</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>802.1567993164062</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>807.57568359375</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>832.8433227539062</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>840.34521484375</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>879.45166015625</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>881.3189086914062</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>879.981201171875</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>874.7186889648438</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>830.1272583007812</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>849.5628051757812</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>849.3321533203125</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>855.9767456054688</v>
+        <v>975.4497680664062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1009.813110351562</v>
+        <v>972.9270629882812</v>
       </c>
       <c r="B4" t="n">
-        <v>1012.975830078125</v>
+        <v>985.79833984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1013.05078125</v>
+        <v>991.255126953125</v>
       </c>
       <c r="D4" t="n">
-        <v>1015.288513183594</v>
+        <v>1000.002502441406</v>
       </c>
       <c r="E4" t="n">
-        <v>1017.655029296875</v>
+        <v>1014.123718261719</v>
       </c>
       <c r="F4" t="n">
-        <v>1026.657592773438</v>
+        <v>1026.41162109375</v>
       </c>
       <c r="G4" t="n">
-        <v>1044.339599609375</v>
+        <v>1041.452392578125</v>
       </c>
       <c r="H4" t="n">
-        <v>1054.994384765625</v>
+        <v>1061.440063476562</v>
       </c>
       <c r="I4" t="n">
-        <v>1064.634155273438</v>
+        <v>1080.162109375</v>
       </c>
       <c r="J4" t="n">
-        <v>1083.126342773438</v>
+        <v>1097.6748046875</v>
       </c>
       <c r="K4" t="n">
-        <v>1102.707275390625</v>
+        <v>1116.943603515625</v>
       </c>
       <c r="L4" t="n">
-        <v>1120.726440429688</v>
+        <v>1146.46337890625</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.319091796875</v>
+        <v>1175.210205078125</v>
       </c>
       <c r="N4" t="n">
-        <v>1191.152587890625</v>
+        <v>1221.547973632812</v>
       </c>
       <c r="O4" t="n">
-        <v>1224.695434570312</v>
+        <v>1208.163208007812</v>
       </c>
       <c r="P4" t="n">
-        <v>1231.1162109375</v>
+        <v>1226.6943359375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1237.156127929688</v>
+        <v>1253.31982421875</v>
       </c>
       <c r="R4" t="n">
-        <v>1244.356201171875</v>
+        <v>1275.295654296875</v>
       </c>
       <c r="S4" t="n">
-        <v>1249.927368164062</v>
+        <v>1296.120483398438</v>
       </c>
       <c r="T4" t="n">
-        <v>1262.65380859375</v>
+        <v>1321.656372070312</v>
       </c>
       <c r="U4" t="n">
-        <v>1273.08251953125</v>
+        <v>1336.280029296875</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.66064453125</v>
+        <v>1361.725341796875</v>
       </c>
       <c r="W4" t="n">
-        <v>1286.544311523438</v>
+        <v>1378.393676757812</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.920654296875</v>
+        <v>1399.70849609375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1277.19189453125</v>
+        <v>1462.841064453125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1273.581420898438</v>
+        <v>1533.459716796875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1274.226318359375</v>
+        <v>1562.364990234375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1277.019287109375</v>
+        <v>1562.22265625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1288.835327148438</v>
+        <v>1580.36572265625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1310.296020507812</v>
+        <v>1608.0068359375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1101.7080078125</v>
+        <v>1632.7529296875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1098.647583007812</v>
+        <v>1651.213989257812</v>
       </c>
       <c r="AG4" t="n">
-        <v>1073.54345703125</v>
+        <v>1678.470703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1111.720458984375</v>
+        <v>1706.946411132812</v>
       </c>
       <c r="AI4" t="n">
-        <v>1113.6376953125</v>
+        <v>1736.839477539062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1150.679565429688</v>
+        <v>1705.515258789062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1146.298583984375</v>
+        <v>1690.250732421875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1163.243286132812</v>
+        <v>1702.424560546875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1173.091064453125</v>
+        <v>1727.123901367188</v>
       </c>
       <c r="AN4" t="n">
-        <v>1162.140625</v>
+        <v>1735.869384765625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1140.116821289062</v>
+        <v>1753.77001953125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1091.461181640625</v>
+        <v>1755.420532226562</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1088.645751953125</v>
+        <v>1759.66845703125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1124.416870117188</v>
+        <v>1766.95947265625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1142.222900390625</v>
+        <v>1746.279296875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1155.052856445312</v>
+        <v>1735.9501953125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1201.408325195312</v>
+        <v>1742.194946289062</v>
       </c>
       <c r="AV4" t="n">
-        <v>1170.34521484375</v>
+        <v>1720.320556640625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1118.6083984375</v>
+        <v>1736.507446289062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1126.707153320312</v>
+        <v>1764.807006835938</v>
       </c>
       <c r="AY4" t="n">
-        <v>1116.632568359375</v>
+        <v>1778.52294921875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1100.205078125</v>
+        <v>1797.191284179688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1081.974731445312</v>
+        <v>1796.294921875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1067.993774414062</v>
+        <v>1799.6044921875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1047.399047851562</v>
+        <v>1799.422119140625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1047.1103515625</v>
+        <v>1800.029418945312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1056.764038085938</v>
+        <v>1800.994873046875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1067.330444335938</v>
+        <v>1801.759521484375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1072.37841796875</v>
+        <v>1803.464599609375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1070.965942382812</v>
+        <v>1808.341674804688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1060.067626953125</v>
+        <v>1805.330322265625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1048.771484375</v>
+        <v>1812.999633789062</v>
       </c>
       <c r="BK4" t="n">
-        <v>1048.646362304688</v>
+        <v>1814.293212890625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1050.350219726562</v>
+        <v>1807.230712890625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1042.03759765625</v>
+        <v>1808.3134765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1039.52587890625</v>
+        <v>1809.700927734375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1033.653076171875</v>
+        <v>1815.21435546875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1032.76220703125</v>
+        <v>1816.537109375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1026.282836914062</v>
+        <v>1809.593505859375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1014.03466796875</v>
+        <v>1813.357666015625</v>
       </c>
       <c r="BS4" t="n">
-        <v>999.7060546875</v>
+        <v>1815.7734375</v>
       </c>
       <c r="BT4" t="n">
-        <v>985.990478515625</v>
+        <v>1796.674438476562</v>
       </c>
       <c r="BU4" t="n">
-        <v>977.0274658203125</v>
+        <v>1804.03076171875</v>
       </c>
       <c r="BV4" t="n">
-        <v>981.885498046875</v>
+        <v>1804.377685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>984.6958618164062</v>
+        <v>1807.181884765625</v>
       </c>
       <c r="BX4" t="n">
-        <v>985.32080078125</v>
+        <v>1805.521606445312</v>
       </c>
       <c r="BY4" t="n">
-        <v>980.2578735351562</v>
+        <v>1802.600830078125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>981.2322998046875</v>
+        <v>1795.07763671875</v>
       </c>
       <c r="CA4" t="n">
-        <v>982.9624633789062</v>
+        <v>1788.708740234375</v>
       </c>
       <c r="CB4" t="n">
-        <v>979.1527709960938</v>
+        <v>1791.129272460938</v>
       </c>
       <c r="CC4" t="n">
-        <v>970.2786254882812</v>
+        <v>1789.09228515625</v>
       </c>
       <c r="CD4" t="n">
-        <v>960.0955200195312</v>
+        <v>1788.345947265625</v>
       </c>
       <c r="CE4" t="n">
-        <v>951.8291625976562</v>
+        <v>1792.638793945312</v>
       </c>
       <c r="CF4" t="n">
-        <v>948.1602172851562</v>
+        <v>1788.91064453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>946.0765991210938</v>
+        <v>1787.234375</v>
       </c>
       <c r="CH4" t="n">
-        <v>943.9768676757812</v>
+        <v>1790.694091796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>944.7035522460938</v>
+        <v>1797.713500976562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1123.552368164062</v>
+        <v>1797.33740234375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1123.408081054688</v>
+        <v>1797.579467773438</v>
       </c>
       <c r="CL4" t="n">
-        <v>1123.065795898438</v>
+        <v>1798.017822265625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1122.703491210938</v>
+        <v>1798.245971679688</v>
       </c>
       <c r="CN4" t="n">
-        <v>1121.987670898438</v>
+        <v>1798.688232421875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1121.275756835938</v>
+        <v>1799.033569335938</v>
       </c>
       <c r="CP4" t="n">
-        <v>1120.395874023438</v>
+        <v>1799.5380859375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1119.346557617188</v>
+        <v>1800.188232421875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1118.223022460938</v>
+        <v>1800.280029296875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1114.896728515625</v>
+        <v>1800.551513671875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1110.784545898438</v>
+        <v>1801.780395507812</v>
       </c>
       <c r="CU4" t="n">
-        <v>1108.825561523438</v>
+        <v>1803.41748046875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1109.06005859375</v>
+        <v>1804.82861328125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1109.60009765625</v>
+        <v>1806.1318359375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1111.468872070312</v>
+        <v>1808.09521484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1113.613403320312</v>
+        <v>1807.798828125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1122.147705078125</v>
+        <v>1808.205810546875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1129.469482421875</v>
+        <v>1808.609008789062</v>
       </c>
       <c r="DB4" t="n">
-        <v>1131.85107421875</v>
+        <v>1808.854858398438</v>
       </c>
       <c r="DC4" t="n">
-        <v>1134.592407226562</v>
+        <v>1809.246826171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1136.651733398438</v>
+        <v>1809.664306640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1139.317993164062</v>
+        <v>1810.667846679688</v>
       </c>
       <c r="DF4" t="n">
-        <v>1139.394897460938</v>
+        <v>1811.409423828125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1139.607666015625</v>
+        <v>1810.558349609375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1140.605224609375</v>
+        <v>1811.038940429688</v>
       </c>
       <c r="DI4" t="n">
-        <v>996.8771362304688</v>
+        <v>1810.21240234375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1017.703369140625</v>
+        <v>1809.181884765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1035.579956054688</v>
+        <v>1806.673706054688</v>
       </c>
       <c r="DL4" t="n">
-        <v>1035.885375976562</v>
+        <v>1805.63525390625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1035.691040039062</v>
+        <v>1804.4462890625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1035.452392578125</v>
+        <v>1795.5791015625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1033.622924804688</v>
+        <v>1781.32275390625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1032.44921875</v>
+        <v>1787.193359375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1030.286865234375</v>
+        <v>1784.071655273438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1028.628173828125</v>
+        <v>1785.117919921875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1026.552734375</v>
+        <v>1786.777954101562</v>
       </c>
       <c r="DT4" t="n">
-        <v>1026.36865234375</v>
+        <v>1791.375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1021.171203613281</v>
+        <v>1793.538330078125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1021.382995605469</v>
+        <v>1799.053466796875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1025.131713867188</v>
+        <v>1806.553833007812</v>
       </c>
       <c r="DX4" t="n">
-        <v>1028.694213867188</v>
+        <v>1801.051391601562</v>
       </c>
       <c r="DY4" t="n">
-        <v>1035.4287109375</v>
+        <v>1799.217163085938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1045.721069335938</v>
+        <v>1803.15771484375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1040.245239257812</v>
+        <v>1797.97119140625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1042.888916015625</v>
+        <v>1774.393798828125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1056.79150390625</v>
+        <v>1762.67724609375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1065.770141601562</v>
+        <v>1788.10009765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1090.140380859375</v>
+        <v>1791.31005859375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1102.766357421875</v>
+        <v>1793.440307617188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1140.156616210938</v>
+        <v>1792.435791015625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1153.418579101562</v>
+        <v>1794.375610351562</v>
       </c>
       <c r="EI4" t="n">
-        <v>1157.765991210938</v>
+        <v>1795.125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1160.036254882812</v>
+        <v>1776.313720703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1156.132690429688</v>
+        <v>1746.6025390625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1146.349853515625</v>
+        <v>1768.14990234375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1150.059692382812</v>
+        <v>1755.81103515625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1169.99853515625</v>
+        <v>1762.728881835938</v>
       </c>
       <c r="EO4" t="n">
-        <v>1227.445190429688</v>
+        <v>1753.4189453125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1312.181396484375</v>
+        <v>1749.191528320312</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1449.317749023438</v>
+        <v>1755.437866210938</v>
       </c>
       <c r="ER4" t="n">
-        <v>1478.059814453125</v>
+        <v>1773.828857421875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1525.334716796875</v>
+        <v>1766.458984375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1557.460205078125</v>
+        <v>1763.581298828125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1578.557983398438</v>
+        <v>1764.81591796875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1607.207763671875</v>
+        <v>1763.410766601562</v>
       </c>
       <c r="EW4" t="n">
-        <v>1662.584716796875</v>
+        <v>1763.599365234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1707.084838867188</v>
+        <v>1737.152099609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1744.532470703125</v>
+        <v>1729.110595703125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1770.91455078125</v>
+        <v>1700.121948242188</v>
       </c>
       <c r="FA4" t="n">
-        <v>1801.168334960938</v>
+        <v>1673.116455078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1808.610717773438</v>
+        <v>1652.948120117188</v>
       </c>
       <c r="FC4" t="n">
-        <v>1854.798095703125</v>
+        <v>1598.814331054688</v>
       </c>
       <c r="FD4" t="n">
-        <v>1888.802734375</v>
+        <v>1582.986206054688</v>
       </c>
       <c r="FE4" t="n">
-        <v>1905.880004882812</v>
+        <v>1554.308227539062</v>
       </c>
       <c r="FF4" t="n">
-        <v>1929.232299804688</v>
+        <v>1555.87353515625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1958.047119140625</v>
+        <v>1546.51416015625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1968.962158203125</v>
+        <v>1530.244506835938</v>
       </c>
       <c r="FI4" t="n">
-        <v>2013.870361328125</v>
+        <v>1508.642944335938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2035.455078125</v>
+        <v>1444.265869140625</v>
       </c>
       <c r="FK4" t="n">
-        <v>1827.705444335938</v>
+        <v>1345.645751953125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1838.478759765625</v>
+        <v>1339.499267578125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1888.9755859375</v>
+        <v>1373.39306640625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1910.702270507812</v>
+        <v>1371.976196289062</v>
       </c>
       <c r="FO4" t="n">
-        <v>1937.447143554688</v>
+        <v>1328.859375</v>
       </c>
       <c r="FP4" t="n">
-        <v>2002.890380859375</v>
+        <v>1314.095458984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2065.96728515625</v>
+        <v>1304.281494140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2103.316650390625</v>
+        <v>1287.357177734375</v>
       </c>
       <c r="FS4" t="n">
-        <v>2108.7890625</v>
+        <v>1282.5576171875</v>
       </c>
       <c r="FT4" t="n">
-        <v>2107.953857421875</v>
+        <v>1252.205444335938</v>
       </c>
       <c r="FU4" t="n">
-        <v>2097.7705078125</v>
+        <v>1213.09228515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2084.325439453125</v>
+        <v>1176.140869140625</v>
       </c>
       <c r="FW4" t="n">
-        <v>2094.25</v>
+        <v>1124.63037109375</v>
       </c>
       <c r="FX4" t="n">
-        <v>2078.19091796875</v>
+        <v>1107.926391601562</v>
       </c>
       <c r="FY4" t="n">
-        <v>2058.830322265625</v>
+        <v>1086.00146484375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2059.724365234375</v>
+        <v>1061.503662109375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2070.2216796875</v>
+        <v>1018.66357421875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2087.109375</v>
+        <v>1006.619323730469</v>
       </c>
       <c r="GC4" t="n">
-        <v>2115.717041015625</v>
+        <v>986.310302734375</v>
       </c>
       <c r="GD4" t="n">
-        <v>2162.56591796875</v>
+        <v>981.3403930664062</v>
       </c>
       <c r="GE4" t="n">
-        <v>2157.069580078125</v>
+        <v>976.0921020507812</v>
       </c>
       <c r="GF4" t="n">
-        <v>2124.294921875</v>
+        <v>970.9657592773438</v>
       </c>
       <c r="GG4" t="n">
-        <v>2117.3505859375</v>
+        <v>964.552978515625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2088.8466796875</v>
+        <v>944.4347534179688</v>
       </c>
       <c r="GI4" t="n">
-        <v>2088.580322265625</v>
+        <v>907.9070434570312</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2308.74072265625</v>
+        <v>899.232421875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2309.550537109375</v>
+        <v>1025.574951171875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2309.77392578125</v>
+        <v>990.2880249023438</v>
       </c>
       <c r="GM4" t="n">
-        <v>2309.924072265625</v>
+        <v>953.776123046875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2309.839599609375</v>
+        <v>936.0655517578125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2305.202880859375</v>
+        <v>900.9877319335938</v>
       </c>
       <c r="GP4" t="n">
-        <v>2295.855224609375</v>
+        <v>870.41015625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2275.477783203125</v>
+        <v>859.1111450195312</v>
       </c>
       <c r="GR4" t="n">
-        <v>2270.501953125</v>
+        <v>842.0491943359375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2266.63525390625</v>
+        <v>833.802001953125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2259.65380859375</v>
+        <v>824.3140258789062</v>
       </c>
       <c r="GU4" t="n">
-        <v>2248.681640625</v>
+        <v>818.8394165039062</v>
       </c>
       <c r="GV4" t="n">
-        <v>2236.67919921875</v>
+        <v>817.2564697265625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2230.967529296875</v>
+        <v>817.0624389648438</v>
       </c>
       <c r="GX4" t="n">
-        <v>2235.384765625</v>
+        <v>816.747802734375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2227.66259765625</v>
+        <v>813.9596557617188</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1996.244384765625</v>
+        <v>801.3388061523438</v>
       </c>
       <c r="HA4" t="n">
-        <v>1996.137573242188</v>
+        <v>757.2963256835938</v>
       </c>
       <c r="HB4" t="n">
-        <v>2007.2421875</v>
+        <v>738.5794067382812</v>
       </c>
       <c r="HC4" t="n">
-        <v>2001.15234375</v>
+        <v>742.2171630859375</v>
       </c>
       <c r="HD4" t="n">
-        <v>1993.16748046875</v>
+        <v>745.9447021484375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1996.167724609375</v>
+        <v>741.227294921875</v>
       </c>
       <c r="HF4" t="n">
-        <v>2003.900024414062</v>
+        <v>757.6838989257812</v>
       </c>
       <c r="HG4" t="n">
-        <v>2005.265869140625</v>
+        <v>763.7415161132812</v>
       </c>
       <c r="HH4" t="n">
-        <v>1979.745971679688</v>
+        <v>751.77734375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1967.942138671875</v>
+        <v>747.1019897460938</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1996.954345703125</v>
+        <v>748.2030029296875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2027.34326171875</v>
+        <v>749.47802734375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2031.30322265625</v>
+        <v>746.4638061523438</v>
       </c>
       <c r="HM4" t="n">
-        <v>2017.486694335938</v>
+        <v>742.6573486328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2012.5439453125</v>
+        <v>726.2607421875</v>
       </c>
       <c r="HO4" t="n">
-        <v>2005.90576171875</v>
+        <v>729.0618286132812</v>
       </c>
       <c r="HP4" t="n">
-        <v>1993.405517578125</v>
+        <v>725.1279907226562</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1961.759765625</v>
+        <v>722.0087280273438</v>
       </c>
       <c r="HR4" t="n">
-        <v>1961.79150390625</v>
+        <v>694.7261352539062</v>
       </c>
       <c r="HS4" t="n">
-        <v>1951.041748046875</v>
+        <v>691.6902465820312</v>
       </c>
       <c r="HT4" t="n">
-        <v>1934.85107421875</v>
+        <v>610.7134399414062</v>
       </c>
       <c r="HU4" t="n">
-        <v>1940.64208984375</v>
+        <v>640.998291015625</v>
       </c>
       <c r="HV4" t="n">
-        <v>1946.771240234375</v>
+        <v>667.9998779296875</v>
       </c>
       <c r="HW4" t="n">
-        <v>1941.6044921875</v>
+        <v>636.3185424804688</v>
       </c>
       <c r="HX4" t="n">
-        <v>1930.301513671875</v>
+        <v>753.3614501953125</v>
       </c>
       <c r="HY4" t="n">
-        <v>1897.845581054688</v>
+        <v>755.1920776367188</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1868.740356445312</v>
+        <v>719.3594360351562</v>
       </c>
       <c r="IA4" t="n">
-        <v>1842.93798828125</v>
+        <v>742.2877807617188</v>
       </c>
       <c r="IB4" t="n">
-        <v>1864.848510742188</v>
+        <v>769.6265258789062</v>
       </c>
       <c r="IC4" t="n">
-        <v>1920.133178710938</v>
+        <v>907.0758666992188</v>
       </c>
       <c r="ID4" t="n">
-        <v>1932.16162109375</v>
+        <v>897.8394165039062</v>
       </c>
       <c r="IE4" t="n">
-        <v>1933.943725585938</v>
+        <v>838.045166015625</v>
       </c>
       <c r="IF4" t="n">
-        <v>1892.976318359375</v>
+        <v>858.365234375</v>
       </c>
       <c r="IG4" t="n">
-        <v>1876.123779296875</v>
+        <v>860.6458129882812</v>
       </c>
       <c r="IH4" t="n">
-        <v>1940.469116210938</v>
+        <v>865.3439331054688</v>
       </c>
       <c r="II4" t="n">
-        <v>1928.32666015625</v>
+        <v>846.8579711914062</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1920.808837890625</v>
+        <v>882.077392578125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2157.17333984375</v>
+        <v>722.2239379882812</v>
       </c>
       <c r="IL4" t="n">
-        <v>2161.611572265625</v>
+        <v>701.0142822265625</v>
       </c>
       <c r="IM4" t="n">
-        <v>2155.369873046875</v>
+        <v>705.0916748046875</v>
       </c>
       <c r="IN4" t="n">
-        <v>1917.491577148438</v>
+        <v>763.44091796875</v>
       </c>
       <c r="IO4" t="n">
-        <v>1912.29296875</v>
+        <v>736.6859741210938</v>
       </c>
       <c r="IP4" t="n">
-        <v>1900.93212890625</v>
+        <v>593.8018798828125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1911.0419921875</v>
+        <v>578.1236572265625</v>
       </c>
       <c r="IR4" t="n">
-        <v>1889.115966796875</v>
+        <v>688.6014404296875</v>
       </c>
       <c r="IS4" t="n">
-        <v>1882.808471679688</v>
+        <v>678.4137573242188</v>
       </c>
       <c r="IT4" t="n">
-        <v>1886.22998046875</v>
+        <v>617.6384887695312</v>
       </c>
       <c r="IU4" t="n">
-        <v>1899.561279296875</v>
+        <v>639.067626953125</v>
       </c>
       <c r="IV4" t="n">
-        <v>1883.732055664062</v>
+        <v>635.8333740234375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1881.61572265625</v>
+        <v>544.68017578125</v>
       </c>
       <c r="IX4" t="n">
-        <v>1868.394775390625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>1843.13525390625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>1842.337524414062</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>1910.573120117188</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>1912.12158203125</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>1894.322021484375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>1932.626586914062</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>1908.097045898438</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>1967.477905273438</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>1944.355224609375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>1950.34423828125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>1957.2451171875</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>1974.2412109375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>1982.644409179688</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>1908.77001953125</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>1923.61376953125</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>1921.86962890625</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2140.53271484375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2137.228271484375</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2133.80859375</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2130.32763671875</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2123.71435546875</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2123.53515625</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2122.864013671875</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2121.3212890625</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2117.94091796875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2113.704345703125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2110.91552734375</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2110.67529296875</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2110.604248046875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2110.53662109375</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2109.600341796875</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2105.568115234375</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2100.970458984375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2100.86083984375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2102.4853515625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2103.12890625</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2103.274658203125</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2103.87646484375</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2104.599609375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2106.04345703125</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2108.422607421875</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2112.369873046875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2116.736083984375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2116.774169921875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2118.4814453125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2119.456787109375</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2125.193359375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2130.51123046875</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2135.400390625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2131.98681640625</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2128.1240234375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2125.879638671875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2123.89453125</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2110.577880859375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>1807.835327148438</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>1761.084594726562</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>1759.748413085938</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>1737.127563476562</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>1719.994262695312</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>1687.214721679688</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1651.779052734375</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1610.3203125</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1551.809204101562</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1488.88720703125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1391.357788085938</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1348.878662109375</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1375.75830078125</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1576.88525390625</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1403.479614257812</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1295.126098632812</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1204.160278320312</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1117.647827148438</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1163.456787109375</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1042.38134765625</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>978.7153930664062</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>903.0757446289062</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>847.2534790039062</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>808.9213256835938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>763.7720947265625</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>731.0418090820312</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>710.1378173828125</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>704.381103515625</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>710.9791259765625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>773.9193725585938</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>835.2943115234375</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>860.6583251953125</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>899.0538940429688</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>927.8867797851562</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>944.2427978515625</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>972.5386962890625</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>979.4111328125</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>990.0289306640625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>1008.199645996094</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>1005.271301269531</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>1017.540344238281</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>1033.721313476562</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>1025.711669921875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>977.968505859375</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>834.5818481445312</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>676.1806030273438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>708.9486083984375</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>675.0945434570312</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>707.4071655273438</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>699.77294921875</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>720.55517578125</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>748.197509765625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>707.0753784179688</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>674.3186645507812</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>643.9922485351562</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>646.158447265625</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>644.5657348632812</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>609.6253051757812</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>601.2921142578125</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>602.1524047851562</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>619.3134765625</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>670.9664306640625</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>653.045654296875</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>649.744384765625</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>645.65478515625</v>
+        <v>543.70849609375</v>
       </c>
     </row>
   </sheetData>
